--- a/experiment/HumanKnowledge/graph.xlsx
+++ b/experiment/HumanKnowledge/graph.xlsx
@@ -1,33 +1,53 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="26230"/>
+  <workbookPr filterPrivacy="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wagahai/Documents/h28_soturon/experiment/HumanKnowledge/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16060" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="h4score" sheetId="3" r:id="rId3"/>
     <sheet name="h6" sheetId="4" r:id="rId4"/>
-    <sheet name="Sheet4" sheetId="5" r:id="rId5"/>
-    <sheet name="Sheet5" sheetId="6" r:id="rId6"/>
-    <sheet name="Sheet6" sheetId="7" r:id="rId7"/>
-    <sheet name="Sheet7" sheetId="8" r:id="rId8"/>
+    <sheet name="h8" sheetId="5" r:id="rId5"/>
+    <sheet name="h10" sheetId="6" r:id="rId6"/>
+    <sheet name="h12" sheetId="7" r:id="rId7"/>
+    <sheet name="h14" sheetId="8" r:id="rId8"/>
+    <sheet name="potential" sheetId="9" r:id="rId9"/>
+    <sheet name="tsumoList" sheetId="14" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="122211" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -55,109 +75,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="標準 2" xfId="1"/>
   </cellStyles>
-  <dxfs count="17">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="8">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -249,7 +182,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="ホワイト">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -291,7 +224,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -326,7 +259,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -539,7 +472,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="12" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1">
@@ -2942,9 +2875,485 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1"/>
+  <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="12" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.15">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2">
+        <v>18.920000000000002</v>
+      </c>
+      <c r="C1" s="2">
+        <v>18.88</v>
+      </c>
+      <c r="D1" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15" x14ac:dyDescent="0.15">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2">
+        <v>16.02</v>
+      </c>
+      <c r="C2" s="2">
+        <v>14.34</v>
+      </c>
+      <c r="D2" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3" s="2">
+        <v>10.24</v>
+      </c>
+      <c r="C3" s="2">
+        <v>10.38</v>
+      </c>
+      <c r="D3" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4" s="2">
+        <v>6.22</v>
+      </c>
+      <c r="C4" s="2">
+        <v>4.3600000000000003</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5" s="2">
+        <v>4.9800000000000004</v>
+      </c>
+      <c r="C5" s="2">
+        <v>3.06</v>
+      </c>
+      <c r="D5" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6" s="2">
+        <v>2.98</v>
+      </c>
+      <c r="C6" s="2">
+        <v>2.62</v>
+      </c>
+      <c r="D6" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15" x14ac:dyDescent="0.15">
+      <c r="A7">
+        <v>7</v>
+      </c>
+      <c r="B7" s="2">
+        <v>3.54</v>
+      </c>
+      <c r="C7" s="2">
+        <v>3.04</v>
+      </c>
+      <c r="D7" s="2">
+        <v>3.72</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15" x14ac:dyDescent="0.15">
+      <c r="A8">
+        <v>8</v>
+      </c>
+      <c r="B8" s="2">
+        <v>2.68</v>
+      </c>
+      <c r="C8" s="2">
+        <v>2.12</v>
+      </c>
+      <c r="D8" s="2">
+        <v>2.92</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15" x14ac:dyDescent="0.15">
+      <c r="A9">
+        <v>9</v>
+      </c>
+      <c r="B9" s="2">
+        <v>3.54</v>
+      </c>
+      <c r="C9" s="2">
+        <v>1.6</v>
+      </c>
+      <c r="D9" s="2">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15" x14ac:dyDescent="0.15">
+      <c r="A10">
+        <v>10</v>
+      </c>
+      <c r="B10" s="2">
+        <v>2.96</v>
+      </c>
+      <c r="C10" s="2">
+        <v>2</v>
+      </c>
+      <c r="D10" s="2">
+        <v>2.08</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15" x14ac:dyDescent="0.15">
+      <c r="A11">
+        <v>11</v>
+      </c>
+      <c r="B11" s="2">
+        <v>2.54</v>
+      </c>
+      <c r="C11" s="2">
+        <v>2.14</v>
+      </c>
+      <c r="D11" s="2">
+        <v>2.66</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15" x14ac:dyDescent="0.15">
+      <c r="A12">
+        <v>12</v>
+      </c>
+      <c r="B12" s="2">
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="C12" s="2">
+        <v>1.9</v>
+      </c>
+      <c r="D12" s="2">
+        <v>2.98</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15" x14ac:dyDescent="0.15">
+      <c r="A13">
+        <v>13</v>
+      </c>
+      <c r="B13" s="2">
+        <v>3.06</v>
+      </c>
+      <c r="C13" s="2">
+        <v>1.9</v>
+      </c>
+      <c r="D13" s="2">
+        <v>2.96</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15" x14ac:dyDescent="0.15">
+      <c r="A14">
+        <v>14</v>
+      </c>
+      <c r="B14" s="2">
+        <v>2.38</v>
+      </c>
+      <c r="C14" s="2">
+        <v>1.74</v>
+      </c>
+      <c r="D14" s="2">
+        <v>3.18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15" x14ac:dyDescent="0.15">
+      <c r="A15">
+        <v>15</v>
+      </c>
+      <c r="B15" s="2">
+        <v>2.9</v>
+      </c>
+      <c r="C15" s="2">
+        <v>1.9</v>
+      </c>
+      <c r="D15" s="2">
+        <v>2.66</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15" x14ac:dyDescent="0.15">
+      <c r="A16">
+        <v>16</v>
+      </c>
+      <c r="B16" s="2">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="C16" s="2">
+        <v>1.6</v>
+      </c>
+      <c r="D16" s="2">
+        <v>2.52</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15" x14ac:dyDescent="0.15">
+      <c r="A17">
+        <v>17</v>
+      </c>
+      <c r="B17" s="2">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="C17" s="2">
+        <v>2.12</v>
+      </c>
+      <c r="D17" s="2">
+        <v>2.42</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="15" x14ac:dyDescent="0.15">
+      <c r="A18">
+        <v>18</v>
+      </c>
+      <c r="B18" s="2">
+        <v>2.88</v>
+      </c>
+      <c r="C18" s="2">
+        <v>1.76</v>
+      </c>
+      <c r="D18" s="2">
+        <v>2.2599999999999998</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="15" x14ac:dyDescent="0.15">
+      <c r="A19">
+        <v>19</v>
+      </c>
+      <c r="B19" s="2">
+        <v>2.4</v>
+      </c>
+      <c r="C19" s="2">
+        <v>1.46</v>
+      </c>
+      <c r="D19" s="2">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="15" x14ac:dyDescent="0.15">
+      <c r="A20">
+        <v>20</v>
+      </c>
+      <c r="B20" s="2">
+        <v>2.4</v>
+      </c>
+      <c r="C20" s="2">
+        <v>1.46</v>
+      </c>
+      <c r="D20" s="2">
+        <v>2.82</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="15" x14ac:dyDescent="0.15">
+      <c r="A21">
+        <v>21</v>
+      </c>
+      <c r="B21" s="2">
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="C21" s="2">
+        <v>1.66</v>
+      </c>
+      <c r="D21" s="2">
+        <v>2.86</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="15" x14ac:dyDescent="0.15">
+      <c r="A22">
+        <v>22</v>
+      </c>
+      <c r="B22" s="2">
+        <v>2.54</v>
+      </c>
+      <c r="C22" s="2">
+        <v>1.32</v>
+      </c>
+      <c r="D22" s="2">
+        <v>2.38</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="15" x14ac:dyDescent="0.15">
+      <c r="A23">
+        <v>23</v>
+      </c>
+      <c r="B23" s="2">
+        <v>2.38</v>
+      </c>
+      <c r="C23" s="2">
+        <v>1.88</v>
+      </c>
+      <c r="D23" s="2">
+        <v>2.12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="15" x14ac:dyDescent="0.15">
+      <c r="A24">
+        <v>24</v>
+      </c>
+      <c r="B24" s="2">
+        <v>2.74</v>
+      </c>
+      <c r="C24" s="2">
+        <v>1.76</v>
+      </c>
+      <c r="D24" s="2">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="15" x14ac:dyDescent="0.15">
+      <c r="A25">
+        <v>25</v>
+      </c>
+      <c r="B25" s="2">
+        <v>2.48</v>
+      </c>
+      <c r="C25" s="2">
+        <v>1.44</v>
+      </c>
+      <c r="D25" s="2">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="15" x14ac:dyDescent="0.15">
+      <c r="A26">
+        <v>26</v>
+      </c>
+      <c r="B26" s="2">
+        <v>2.34</v>
+      </c>
+      <c r="C26" s="2">
+        <v>1.78</v>
+      </c>
+      <c r="D26" s="2">
+        <v>2.82</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="15" x14ac:dyDescent="0.15">
+      <c r="A27">
+        <v>27</v>
+      </c>
+      <c r="B27" s="2">
+        <v>1.86</v>
+      </c>
+      <c r="C27" s="2">
+        <v>1.52</v>
+      </c>
+      <c r="D27" s="2">
+        <v>2.64</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="15" x14ac:dyDescent="0.15">
+      <c r="A28">
+        <v>28</v>
+      </c>
+      <c r="B28" s="2">
+        <v>2.12</v>
+      </c>
+      <c r="C28" s="2">
+        <v>1.54</v>
+      </c>
+      <c r="D28" s="2">
+        <v>2.68</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="15" x14ac:dyDescent="0.15">
+      <c r="A29">
+        <v>29</v>
+      </c>
+      <c r="B29" s="2">
+        <v>2.16</v>
+      </c>
+      <c r="C29" s="2">
+        <v>1.78</v>
+      </c>
+      <c r="D29" s="2">
+        <v>2.34</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="15" x14ac:dyDescent="0.15">
+      <c r="A30">
+        <v>30</v>
+      </c>
+      <c r="B30" s="2">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="C30" s="2">
+        <v>1.54</v>
+      </c>
+      <c r="D30" s="2">
+        <v>2.2200000000000002</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="15" x14ac:dyDescent="0.15">
+      <c r="A31">
+        <v>31</v>
+      </c>
+      <c r="B31" s="2">
+        <v>1.86</v>
+      </c>
+      <c r="C31" s="2">
+        <v>1.66</v>
+      </c>
+      <c r="D31" s="2">
+        <v>2.2400000000000002</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="15" x14ac:dyDescent="0.15">
+      <c r="A32">
+        <v>32</v>
+      </c>
+      <c r="B32" s="2">
+        <v>1.56</v>
+      </c>
+      <c r="C32" s="2">
+        <v>1.34</v>
+      </c>
+      <c r="D32" s="2">
+        <v>1.96</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="15" x14ac:dyDescent="0.15">
+      <c r="A33">
+        <v>33</v>
+      </c>
+      <c r="B33" s="2">
+        <v>1.28</v>
+      </c>
+      <c r="C33" s="2">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="D33" s="2">
+        <v>1.08</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -2954,9 +3363,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="12" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <sheetData/>
-  <phoneticPr fontId="1"/>
+  <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2965,11 +3374,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AX35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="12" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:50" x14ac:dyDescent="0.15">
       <c r="A1" s="1">
@@ -7988,25 +8397,166 @@
       </c>
     </row>
     <row r="35" spans="1:50" x14ac:dyDescent="0.15">
-      <c r="A35" s="1"/>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
-      <c r="H35" s="1"/>
-      <c r="I35" s="1"/>
+      <c r="A35" s="1">
+        <v>16</v>
+      </c>
+      <c r="B35" s="1">
+        <v>21</v>
+      </c>
+      <c r="C35" s="1">
+        <v>18</v>
+      </c>
+      <c r="D35" s="1">
+        <v>16</v>
+      </c>
+      <c r="E35" s="1">
+        <v>12</v>
+      </c>
+      <c r="F35" s="1">
+        <v>14</v>
+      </c>
+      <c r="G35" s="1">
+        <v>13</v>
+      </c>
+      <c r="H35" s="1">
+        <v>13</v>
+      </c>
+      <c r="I35" s="1">
+        <v>17</v>
+      </c>
+      <c r="J35" s="1">
+        <v>20</v>
+      </c>
+      <c r="K35" s="1">
+        <v>16</v>
+      </c>
+      <c r="L35" s="1">
+        <v>23</v>
+      </c>
+      <c r="M35" s="1">
+        <v>11</v>
+      </c>
+      <c r="N35" s="1">
+        <v>13</v>
+      </c>
+      <c r="O35" s="1">
+        <v>11</v>
+      </c>
+      <c r="P35" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q35" s="1">
+        <v>16</v>
+      </c>
+      <c r="R35" s="1">
+        <v>15</v>
+      </c>
+      <c r="S35" s="1">
+        <v>22</v>
+      </c>
+      <c r="T35" s="1">
+        <v>18</v>
+      </c>
+      <c r="U35" s="1">
+        <v>17</v>
+      </c>
+      <c r="V35" s="1">
+        <v>15</v>
+      </c>
+      <c r="W35" s="1">
+        <v>32</v>
+      </c>
+      <c r="X35" s="1">
+        <v>13</v>
+      </c>
+      <c r="Y35" s="1">
+        <v>14</v>
+      </c>
+      <c r="Z35" s="1">
+        <v>17</v>
+      </c>
+      <c r="AA35" s="1">
+        <v>13</v>
+      </c>
+      <c r="AB35" s="1">
+        <v>14</v>
+      </c>
+      <c r="AC35" s="1">
+        <v>11</v>
+      </c>
+      <c r="AD35" s="1">
+        <v>24</v>
+      </c>
+      <c r="AE35" s="1">
+        <v>11</v>
+      </c>
+      <c r="AF35" s="1">
+        <v>13</v>
+      </c>
+      <c r="AG35" s="1">
+        <v>14</v>
+      </c>
+      <c r="AH35" s="1">
+        <v>14</v>
+      </c>
+      <c r="AI35" s="1">
+        <v>20</v>
+      </c>
+      <c r="AJ35" s="1">
+        <v>15</v>
+      </c>
+      <c r="AK35" s="1">
+        <v>14</v>
+      </c>
+      <c r="AL35" s="1">
+        <v>15</v>
+      </c>
+      <c r="AM35" s="1">
+        <v>16</v>
+      </c>
+      <c r="AN35" s="1">
+        <v>10</v>
+      </c>
+      <c r="AO35" s="1">
+        <v>11</v>
+      </c>
+      <c r="AP35" s="1">
+        <v>16</v>
+      </c>
+      <c r="AQ35" s="1">
+        <v>16</v>
+      </c>
+      <c r="AR35" s="1">
+        <v>11</v>
+      </c>
+      <c r="AS35" s="1">
+        <v>21</v>
+      </c>
+      <c r="AT35" s="1">
+        <v>13</v>
+      </c>
+      <c r="AU35" s="1">
+        <v>18</v>
+      </c>
+      <c r="AV35" s="1">
+        <v>12</v>
+      </c>
+      <c r="AW35" s="1">
+        <v>14</v>
+      </c>
+      <c r="AX35" s="1">
+        <v>14</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1"/>
+  <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="A34">
-    <cfRule type="cellIs" dxfId="16" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="7" priority="2" operator="greaterThan">
       <formula>2100</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:AX33 A35:I35">
-    <cfRule type="cellIs" dxfId="14" priority="1" operator="greaterThan">
+  <conditionalFormatting sqref="A1:AX33 A35:AX35">
+    <cfRule type="cellIs" dxfId="6" priority="1" operator="greaterThan">
       <formula>2099</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8016,13 +8566,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AX33"/>
+  <dimension ref="A1:AX35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:AX33"/>
+      <selection activeCell="A35" sqref="A35:XFD35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="12" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:50" x14ac:dyDescent="0.15">
       <c r="A1" s="1">
@@ -13040,10 +13590,162 @@
         <v>52340</v>
       </c>
     </row>
+    <row r="35" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A35" s="1">
+        <v>15</v>
+      </c>
+      <c r="B35" s="1">
+        <v>17</v>
+      </c>
+      <c r="C35" s="1">
+        <v>12</v>
+      </c>
+      <c r="D35" s="1">
+        <v>16</v>
+      </c>
+      <c r="E35" s="1">
+        <v>14</v>
+      </c>
+      <c r="F35" s="1">
+        <v>14</v>
+      </c>
+      <c r="G35" s="1">
+        <v>13</v>
+      </c>
+      <c r="H35" s="1">
+        <v>17</v>
+      </c>
+      <c r="I35" s="1">
+        <v>17</v>
+      </c>
+      <c r="J35" s="1">
+        <v>18</v>
+      </c>
+      <c r="K35" s="1">
+        <v>16</v>
+      </c>
+      <c r="L35" s="1">
+        <v>18</v>
+      </c>
+      <c r="M35" s="1">
+        <v>27</v>
+      </c>
+      <c r="N35" s="1">
+        <v>13</v>
+      </c>
+      <c r="O35" s="1">
+        <v>13</v>
+      </c>
+      <c r="P35" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q35" s="1">
+        <v>12</v>
+      </c>
+      <c r="R35" s="1">
+        <v>15</v>
+      </c>
+      <c r="S35" s="1">
+        <v>16</v>
+      </c>
+      <c r="T35" s="1">
+        <v>16</v>
+      </c>
+      <c r="U35" s="1">
+        <v>17</v>
+      </c>
+      <c r="V35" s="1">
+        <v>20</v>
+      </c>
+      <c r="W35" s="1">
+        <v>29</v>
+      </c>
+      <c r="X35" s="1">
+        <v>13</v>
+      </c>
+      <c r="Y35" s="1">
+        <v>11</v>
+      </c>
+      <c r="Z35" s="1">
+        <v>22</v>
+      </c>
+      <c r="AA35" s="1">
+        <v>13</v>
+      </c>
+      <c r="AB35" s="1">
+        <v>14</v>
+      </c>
+      <c r="AC35" s="1">
+        <v>11</v>
+      </c>
+      <c r="AD35" s="1">
+        <v>23</v>
+      </c>
+      <c r="AE35" s="1">
+        <v>11</v>
+      </c>
+      <c r="AF35" s="1">
+        <v>13</v>
+      </c>
+      <c r="AG35" s="1">
+        <v>16</v>
+      </c>
+      <c r="AH35" s="1">
+        <v>15</v>
+      </c>
+      <c r="AI35" s="1">
+        <v>17</v>
+      </c>
+      <c r="AJ35" s="1">
+        <v>33</v>
+      </c>
+      <c r="AK35" s="1">
+        <v>14</v>
+      </c>
+      <c r="AL35" s="1">
+        <v>5</v>
+      </c>
+      <c r="AM35" s="1">
+        <v>16</v>
+      </c>
+      <c r="AN35" s="1">
+        <v>10</v>
+      </c>
+      <c r="AO35" s="1">
+        <v>11</v>
+      </c>
+      <c r="AP35" s="1">
+        <v>15</v>
+      </c>
+      <c r="AQ35" s="1">
+        <v>12</v>
+      </c>
+      <c r="AR35" s="1">
+        <v>1</v>
+      </c>
+      <c r="AS35" s="1">
+        <v>14</v>
+      </c>
+      <c r="AT35" s="1">
+        <v>13</v>
+      </c>
+      <c r="AU35" s="1">
+        <v>16</v>
+      </c>
+      <c r="AV35" s="1">
+        <v>12</v>
+      </c>
+      <c r="AW35" s="1">
+        <v>14</v>
+      </c>
+      <c r="AX35" s="1">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="A1:AX33">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="greaterThan">
+  <phoneticPr fontId="2"/>
+  <conditionalFormatting sqref="A1:AX33 A35:AX35">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="greaterThan">
       <formula>2099</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13054,13 +13756,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AX33"/>
+  <dimension ref="A1:AX35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+      <selection activeCell="A35" sqref="A35:XFD35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="12" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:50" x14ac:dyDescent="0.15">
       <c r="A1" s="1">
@@ -18078,9 +18780,161 @@
         <v>52210</v>
       </c>
     </row>
+    <row r="35" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A35" s="1">
+        <v>16</v>
+      </c>
+      <c r="B35" s="1">
+        <v>13</v>
+      </c>
+      <c r="C35" s="1">
+        <v>15</v>
+      </c>
+      <c r="D35" s="1">
+        <v>15</v>
+      </c>
+      <c r="E35" s="1">
+        <v>14</v>
+      </c>
+      <c r="F35" s="1">
+        <v>13</v>
+      </c>
+      <c r="G35" s="1">
+        <v>13</v>
+      </c>
+      <c r="H35" s="1">
+        <v>17</v>
+      </c>
+      <c r="I35" s="1">
+        <v>16</v>
+      </c>
+      <c r="J35" s="1">
+        <v>16</v>
+      </c>
+      <c r="K35" s="1">
+        <v>13</v>
+      </c>
+      <c r="L35" s="1">
+        <v>23</v>
+      </c>
+      <c r="M35" s="1">
+        <v>13</v>
+      </c>
+      <c r="N35" s="1">
+        <v>15</v>
+      </c>
+      <c r="O35" s="1">
+        <v>13</v>
+      </c>
+      <c r="P35" s="1">
+        <v>22</v>
+      </c>
+      <c r="Q35" s="1">
+        <v>29</v>
+      </c>
+      <c r="R35" s="1">
+        <v>15</v>
+      </c>
+      <c r="S35" s="1">
+        <v>15</v>
+      </c>
+      <c r="T35" s="1">
+        <v>13</v>
+      </c>
+      <c r="U35" s="1">
+        <v>24</v>
+      </c>
+      <c r="V35" s="1">
+        <v>17</v>
+      </c>
+      <c r="W35" s="1">
+        <v>15</v>
+      </c>
+      <c r="X35" s="1">
+        <v>14</v>
+      </c>
+      <c r="Y35" s="1">
+        <v>13</v>
+      </c>
+      <c r="Z35" s="1">
+        <v>18</v>
+      </c>
+      <c r="AA35" s="1">
+        <v>17</v>
+      </c>
+      <c r="AB35" s="1">
+        <v>18</v>
+      </c>
+      <c r="AC35" s="1">
+        <v>11</v>
+      </c>
+      <c r="AD35" s="1">
+        <v>15</v>
+      </c>
+      <c r="AE35" s="1">
+        <v>17</v>
+      </c>
+      <c r="AF35" s="1">
+        <v>20</v>
+      </c>
+      <c r="AG35" s="1">
+        <v>13</v>
+      </c>
+      <c r="AH35" s="1">
+        <v>15</v>
+      </c>
+      <c r="AI35" s="1">
+        <v>17</v>
+      </c>
+      <c r="AJ35" s="1">
+        <v>16</v>
+      </c>
+      <c r="AK35" s="1">
+        <v>21</v>
+      </c>
+      <c r="AL35" s="1">
+        <v>13</v>
+      </c>
+      <c r="AM35" s="1">
+        <v>16</v>
+      </c>
+      <c r="AN35" s="1">
+        <v>9</v>
+      </c>
+      <c r="AO35" s="1">
+        <v>29</v>
+      </c>
+      <c r="AP35" s="1">
+        <v>16</v>
+      </c>
+      <c r="AQ35" s="1">
+        <v>14</v>
+      </c>
+      <c r="AR35" s="1">
+        <v>12</v>
+      </c>
+      <c r="AS35" s="1">
+        <v>16</v>
+      </c>
+      <c r="AT35" s="1">
+        <v>13</v>
+      </c>
+      <c r="AU35" s="1">
+        <v>15</v>
+      </c>
+      <c r="AV35" s="1">
+        <v>15</v>
+      </c>
+      <c r="AW35" s="1">
+        <v>17</v>
+      </c>
+      <c r="AX35" s="1">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="A1:AX33">
+  <phoneticPr fontId="2"/>
+  <conditionalFormatting sqref="A1:AX33 A35:AX35">
     <cfRule type="cellIs" dxfId="4" priority="1" operator="greaterThan">
       <formula>2099</formula>
     </cfRule>
@@ -18091,13 +18945,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AX33"/>
+  <dimension ref="A1:AX35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="12" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:50" x14ac:dyDescent="0.15">
       <c r="A1" s="1">
@@ -23115,10 +23969,162 @@
         <v>20360</v>
       </c>
     </row>
+    <row r="35" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" s="1">
+        <v>19</v>
+      </c>
+      <c r="C35" s="1">
+        <v>18</v>
+      </c>
+      <c r="D35" s="1">
+        <v>17</v>
+      </c>
+      <c r="E35" s="1">
+        <v>14</v>
+      </c>
+      <c r="F35" s="1">
+        <v>13</v>
+      </c>
+      <c r="G35" s="1">
+        <v>17</v>
+      </c>
+      <c r="H35" s="1">
+        <v>13</v>
+      </c>
+      <c r="I35" s="1">
+        <v>17</v>
+      </c>
+      <c r="J35" s="1">
+        <v>17</v>
+      </c>
+      <c r="K35" s="1">
+        <v>28</v>
+      </c>
+      <c r="L35" s="1">
+        <v>23</v>
+      </c>
+      <c r="M35" s="1">
+        <v>14</v>
+      </c>
+      <c r="N35" s="1">
+        <v>18</v>
+      </c>
+      <c r="O35" s="1">
+        <v>11</v>
+      </c>
+      <c r="P35" s="1">
+        <v>16</v>
+      </c>
+      <c r="Q35" s="1">
+        <v>21</v>
+      </c>
+      <c r="R35" s="1">
+        <v>15</v>
+      </c>
+      <c r="S35" s="1">
+        <v>24</v>
+      </c>
+      <c r="T35" s="1">
+        <v>16</v>
+      </c>
+      <c r="U35" s="1">
+        <v>17</v>
+      </c>
+      <c r="V35" s="1">
+        <v>15</v>
+      </c>
+      <c r="W35" s="1">
+        <v>15</v>
+      </c>
+      <c r="X35" s="1">
+        <v>14</v>
+      </c>
+      <c r="Y35" s="1">
+        <v>17</v>
+      </c>
+      <c r="Z35" s="1">
+        <v>19</v>
+      </c>
+      <c r="AA35" s="1">
+        <v>18</v>
+      </c>
+      <c r="AB35" s="1">
+        <v>16</v>
+      </c>
+      <c r="AC35" s="1">
+        <v>14</v>
+      </c>
+      <c r="AD35" s="1">
+        <v>24</v>
+      </c>
+      <c r="AE35" s="1">
+        <v>19</v>
+      </c>
+      <c r="AF35" s="1">
+        <v>20</v>
+      </c>
+      <c r="AG35" s="1">
+        <v>16</v>
+      </c>
+      <c r="AH35" s="1">
+        <v>24</v>
+      </c>
+      <c r="AI35" s="1">
+        <v>23</v>
+      </c>
+      <c r="AJ35" s="1">
+        <v>14</v>
+      </c>
+      <c r="AK35" s="1">
+        <v>19</v>
+      </c>
+      <c r="AL35" s="1">
+        <v>12</v>
+      </c>
+      <c r="AM35" s="1">
+        <v>16</v>
+      </c>
+      <c r="AN35" s="1">
+        <v>9</v>
+      </c>
+      <c r="AO35" s="1">
+        <v>19</v>
+      </c>
+      <c r="AP35" s="1">
+        <v>16</v>
+      </c>
+      <c r="AQ35" s="1">
+        <v>16</v>
+      </c>
+      <c r="AR35" s="1">
+        <v>23</v>
+      </c>
+      <c r="AS35" s="1">
+        <v>18</v>
+      </c>
+      <c r="AT35" s="1">
+        <v>14</v>
+      </c>
+      <c r="AU35" s="1">
+        <v>18</v>
+      </c>
+      <c r="AV35" s="1">
+        <v>18</v>
+      </c>
+      <c r="AW35" s="1">
+        <v>17</v>
+      </c>
+      <c r="AX35" s="1">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="A1:AX33">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="greaterThan">
+  <phoneticPr fontId="2"/>
+  <conditionalFormatting sqref="A1:AX33 A35:AX35">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="greaterThan">
       <formula>2099</formula>
     </cfRule>
   </conditionalFormatting>
@@ -23128,13 +24134,13 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AX33"/>
+  <dimension ref="A1:AX35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+      <selection activeCell="A35" sqref="A35:XFD35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="12" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:50" x14ac:dyDescent="0.15">
       <c r="A1" s="1">
@@ -28152,10 +29158,162 @@
         <v>26920</v>
       </c>
     </row>
+    <row r="35" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A35" s="1">
+        <v>19</v>
+      </c>
+      <c r="B35" s="1">
+        <v>24</v>
+      </c>
+      <c r="C35" s="1">
+        <v>18</v>
+      </c>
+      <c r="D35" s="1">
+        <v>17</v>
+      </c>
+      <c r="E35" s="1">
+        <v>24</v>
+      </c>
+      <c r="F35" s="1">
+        <v>14</v>
+      </c>
+      <c r="G35" s="1">
+        <v>29</v>
+      </c>
+      <c r="H35" s="1">
+        <v>18</v>
+      </c>
+      <c r="I35" s="1">
+        <v>17</v>
+      </c>
+      <c r="J35" s="1">
+        <v>23</v>
+      </c>
+      <c r="K35" s="1">
+        <v>14</v>
+      </c>
+      <c r="L35" s="1">
+        <v>29</v>
+      </c>
+      <c r="M35" s="1">
+        <v>30</v>
+      </c>
+      <c r="N35" s="1">
+        <v>19</v>
+      </c>
+      <c r="O35" s="1">
+        <v>11</v>
+      </c>
+      <c r="P35" s="1">
+        <v>19</v>
+      </c>
+      <c r="Q35" s="1">
+        <v>19</v>
+      </c>
+      <c r="R35" s="1">
+        <v>17</v>
+      </c>
+      <c r="S35" s="1">
+        <v>14</v>
+      </c>
+      <c r="T35" s="1">
+        <v>17</v>
+      </c>
+      <c r="U35" s="1">
+        <v>20</v>
+      </c>
+      <c r="V35" s="1">
+        <v>19</v>
+      </c>
+      <c r="W35" s="1">
+        <v>28</v>
+      </c>
+      <c r="X35" s="1">
+        <v>16</v>
+      </c>
+      <c r="Y35" s="1">
+        <v>17</v>
+      </c>
+      <c r="Z35" s="1">
+        <v>23</v>
+      </c>
+      <c r="AA35" s="1">
+        <v>17</v>
+      </c>
+      <c r="AB35" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC35" s="1">
+        <v>18</v>
+      </c>
+      <c r="AD35" s="1">
+        <v>24</v>
+      </c>
+      <c r="AE35" s="1">
+        <v>18</v>
+      </c>
+      <c r="AF35" s="1">
+        <v>16</v>
+      </c>
+      <c r="AG35" s="1">
+        <v>18</v>
+      </c>
+      <c r="AH35" s="1">
+        <v>19</v>
+      </c>
+      <c r="AI35" s="1">
+        <v>25</v>
+      </c>
+      <c r="AJ35" s="1">
+        <v>15</v>
+      </c>
+      <c r="AK35" s="1">
+        <v>17</v>
+      </c>
+      <c r="AL35" s="1">
+        <v>12</v>
+      </c>
+      <c r="AM35" s="1">
+        <v>16</v>
+      </c>
+      <c r="AN35" s="1">
+        <v>9</v>
+      </c>
+      <c r="AO35" s="1">
+        <v>18</v>
+      </c>
+      <c r="AP35" s="1">
+        <v>16</v>
+      </c>
+      <c r="AQ35" s="1">
+        <v>16</v>
+      </c>
+      <c r="AR35" s="1">
+        <v>23</v>
+      </c>
+      <c r="AS35" s="1">
+        <v>20</v>
+      </c>
+      <c r="AT35" s="1">
+        <v>19</v>
+      </c>
+      <c r="AU35" s="1">
+        <v>20</v>
+      </c>
+      <c r="AV35" s="1">
+        <v>25</v>
+      </c>
+      <c r="AW35" s="1">
+        <v>17</v>
+      </c>
+      <c r="AX35" s="1">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="A1:AX33">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
+  <phoneticPr fontId="2"/>
+  <conditionalFormatting sqref="A1:AX33 A35:AX35">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="greaterThan">
       <formula>2099</formula>
     </cfRule>
   </conditionalFormatting>
@@ -28165,13 +29323,13 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AX33"/>
+  <dimension ref="A1:AX35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+    <sheetView topLeftCell="Z1" workbookViewId="0">
+      <selection activeCell="Z35" sqref="A35:XFD35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="12" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:50" x14ac:dyDescent="0.15">
       <c r="A1" s="1">
@@ -33189,9 +34347,5348 @@
         <v>26020</v>
       </c>
     </row>
+    <row r="35" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A35" s="1">
+        <v>21</v>
+      </c>
+      <c r="B35" s="1">
+        <v>15</v>
+      </c>
+      <c r="C35" s="1">
+        <v>18</v>
+      </c>
+      <c r="D35" s="1">
+        <v>18</v>
+      </c>
+      <c r="E35" s="1">
+        <v>31</v>
+      </c>
+      <c r="F35" s="1">
+        <v>18</v>
+      </c>
+      <c r="G35" s="1">
+        <v>25</v>
+      </c>
+      <c r="H35" s="1">
+        <v>21</v>
+      </c>
+      <c r="I35" s="1">
+        <v>22</v>
+      </c>
+      <c r="J35" s="1">
+        <v>20</v>
+      </c>
+      <c r="K35" s="1">
+        <v>17</v>
+      </c>
+      <c r="L35" s="1">
+        <v>23</v>
+      </c>
+      <c r="M35" s="1">
+        <v>33</v>
+      </c>
+      <c r="N35" s="1">
+        <v>21</v>
+      </c>
+      <c r="O35" s="1">
+        <v>11</v>
+      </c>
+      <c r="P35" s="1">
+        <v>22</v>
+      </c>
+      <c r="Q35" s="1">
+        <v>18</v>
+      </c>
+      <c r="R35" s="1">
+        <v>18</v>
+      </c>
+      <c r="S35" s="1">
+        <v>20</v>
+      </c>
+      <c r="T35" s="1">
+        <v>16</v>
+      </c>
+      <c r="U35" s="1">
+        <v>23</v>
+      </c>
+      <c r="V35" s="1">
+        <v>19</v>
+      </c>
+      <c r="W35" s="1">
+        <v>29</v>
+      </c>
+      <c r="X35" s="1">
+        <v>16</v>
+      </c>
+      <c r="Y35" s="1">
+        <v>21</v>
+      </c>
+      <c r="Z35" s="1">
+        <v>23</v>
+      </c>
+      <c r="AA35" s="1">
+        <v>21</v>
+      </c>
+      <c r="AB35" s="1">
+        <v>22</v>
+      </c>
+      <c r="AC35" s="1">
+        <v>24</v>
+      </c>
+      <c r="AD35" s="1">
+        <v>33</v>
+      </c>
+      <c r="AE35" s="1">
+        <v>18</v>
+      </c>
+      <c r="AF35" s="1">
+        <v>20</v>
+      </c>
+      <c r="AG35" s="1">
+        <v>19</v>
+      </c>
+      <c r="AH35" s="1">
+        <v>25</v>
+      </c>
+      <c r="AI35" s="1">
+        <v>25</v>
+      </c>
+      <c r="AJ35" s="1">
+        <v>23</v>
+      </c>
+      <c r="AK35" s="1">
+        <v>20</v>
+      </c>
+      <c r="AL35" s="1">
+        <v>12</v>
+      </c>
+      <c r="AM35" s="1">
+        <v>17</v>
+      </c>
+      <c r="AN35" s="1">
+        <v>9</v>
+      </c>
+      <c r="AO35" s="1">
+        <v>16</v>
+      </c>
+      <c r="AP35" s="1">
+        <v>16</v>
+      </c>
+      <c r="AQ35" s="1">
+        <v>22</v>
+      </c>
+      <c r="AR35" s="1">
+        <v>24</v>
+      </c>
+      <c r="AS35" s="1">
+        <v>20</v>
+      </c>
+      <c r="AT35" s="1">
+        <v>19</v>
+      </c>
+      <c r="AU35" s="1">
+        <v>26</v>
+      </c>
+      <c r="AV35" s="1">
+        <v>23</v>
+      </c>
+      <c r="AW35" s="1">
+        <v>18</v>
+      </c>
+      <c r="AX35" s="1">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="A1:AX33">
+  <phoneticPr fontId="2"/>
+  <conditionalFormatting sqref="A1:AX33 A35:AX35">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
+      <formula>2099</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AX35"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="12" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A1">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>0</v>
+      </c>
+      <c r="C1">
+        <v>0</v>
+      </c>
+      <c r="D1">
+        <v>0</v>
+      </c>
+      <c r="E1">
+        <v>0</v>
+      </c>
+      <c r="F1">
+        <v>0</v>
+      </c>
+      <c r="G1">
+        <v>0</v>
+      </c>
+      <c r="H1">
+        <v>0</v>
+      </c>
+      <c r="I1">
+        <v>0</v>
+      </c>
+      <c r="J1">
+        <v>0</v>
+      </c>
+      <c r="K1">
+        <v>0</v>
+      </c>
+      <c r="L1">
+        <v>0</v>
+      </c>
+      <c r="M1">
+        <v>0</v>
+      </c>
+      <c r="N1">
+        <v>0</v>
+      </c>
+      <c r="O1">
+        <v>0</v>
+      </c>
+      <c r="P1">
+        <v>0</v>
+      </c>
+      <c r="Q1">
+        <v>0</v>
+      </c>
+      <c r="R1">
+        <v>0</v>
+      </c>
+      <c r="S1">
+        <v>0</v>
+      </c>
+      <c r="T1">
+        <v>0</v>
+      </c>
+      <c r="U1">
+        <v>0</v>
+      </c>
+      <c r="V1">
+        <v>0</v>
+      </c>
+      <c r="W1">
+        <v>0</v>
+      </c>
+      <c r="X1">
+        <v>0</v>
+      </c>
+      <c r="Y1">
+        <v>0</v>
+      </c>
+      <c r="Z1">
+        <v>0</v>
+      </c>
+      <c r="AA1">
+        <v>0</v>
+      </c>
+      <c r="AB1">
+        <v>0</v>
+      </c>
+      <c r="AC1">
+        <v>0</v>
+      </c>
+      <c r="AD1">
+        <v>0</v>
+      </c>
+      <c r="AE1">
+        <v>0</v>
+      </c>
+      <c r="AF1">
+        <v>0</v>
+      </c>
+      <c r="AG1">
+        <v>0</v>
+      </c>
+      <c r="AH1">
+        <v>0</v>
+      </c>
+      <c r="AI1">
+        <v>0</v>
+      </c>
+      <c r="AJ1">
+        <v>0</v>
+      </c>
+      <c r="AK1">
+        <v>0</v>
+      </c>
+      <c r="AL1">
+        <v>0</v>
+      </c>
+      <c r="AM1">
+        <v>0</v>
+      </c>
+      <c r="AN1">
+        <v>0</v>
+      </c>
+      <c r="AO1">
+        <v>0</v>
+      </c>
+      <c r="AP1">
+        <v>0</v>
+      </c>
+      <c r="AQ1">
+        <v>0</v>
+      </c>
+      <c r="AR1">
+        <v>0</v>
+      </c>
+      <c r="AS1">
+        <v>0</v>
+      </c>
+      <c r="AT1">
+        <v>0</v>
+      </c>
+      <c r="AU1">
+        <v>0</v>
+      </c>
+      <c r="AV1">
+        <v>0</v>
+      </c>
+      <c r="AW1">
+        <v>0</v>
+      </c>
+      <c r="AX1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <v>0</v>
+      </c>
+      <c r="W2">
+        <v>0</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+      <c r="AA2">
+        <v>0</v>
+      </c>
+      <c r="AB2">
+        <v>0</v>
+      </c>
+      <c r="AC2">
+        <v>0</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
+      </c>
+      <c r="AF2">
+        <v>0</v>
+      </c>
+      <c r="AG2">
+        <v>0</v>
+      </c>
+      <c r="AH2">
+        <v>0</v>
+      </c>
+      <c r="AI2">
+        <v>0</v>
+      </c>
+      <c r="AJ2">
+        <v>0</v>
+      </c>
+      <c r="AK2">
+        <v>0</v>
+      </c>
+      <c r="AL2">
+        <v>0</v>
+      </c>
+      <c r="AM2">
+        <v>0</v>
+      </c>
+      <c r="AN2">
+        <v>0</v>
+      </c>
+      <c r="AO2">
+        <v>0</v>
+      </c>
+      <c r="AP2">
+        <v>0</v>
+      </c>
+      <c r="AQ2">
+        <v>0</v>
+      </c>
+      <c r="AR2">
+        <v>0</v>
+      </c>
+      <c r="AS2">
+        <v>0</v>
+      </c>
+      <c r="AT2">
+        <v>0</v>
+      </c>
+      <c r="AU2">
+        <v>0</v>
+      </c>
+      <c r="AV2">
+        <v>0</v>
+      </c>
+      <c r="AW2">
+        <v>0</v>
+      </c>
+      <c r="AX2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>40</v>
+      </c>
+      <c r="V3">
+        <v>0</v>
+      </c>
+      <c r="W3">
+        <v>0</v>
+      </c>
+      <c r="X3">
+        <v>0</v>
+      </c>
+      <c r="Y3">
+        <v>0</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+      <c r="AA3">
+        <v>0</v>
+      </c>
+      <c r="AB3">
+        <v>40</v>
+      </c>
+      <c r="AC3">
+        <v>100</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>0</v>
+      </c>
+      <c r="AF3">
+        <v>0</v>
+      </c>
+      <c r="AG3">
+        <v>40</v>
+      </c>
+      <c r="AH3">
+        <v>0</v>
+      </c>
+      <c r="AI3">
+        <v>0</v>
+      </c>
+      <c r="AJ3">
+        <v>0</v>
+      </c>
+      <c r="AK3">
+        <v>40</v>
+      </c>
+      <c r="AL3">
+        <v>0</v>
+      </c>
+      <c r="AM3">
+        <v>0</v>
+      </c>
+      <c r="AN3">
+        <v>0</v>
+      </c>
+      <c r="AO3">
+        <v>0</v>
+      </c>
+      <c r="AP3">
+        <v>0</v>
+      </c>
+      <c r="AQ3">
+        <v>0</v>
+      </c>
+      <c r="AR3">
+        <v>0</v>
+      </c>
+      <c r="AS3">
+        <v>0</v>
+      </c>
+      <c r="AT3">
+        <v>0</v>
+      </c>
+      <c r="AU3">
+        <v>0</v>
+      </c>
+      <c r="AV3">
+        <v>0</v>
+      </c>
+      <c r="AW3">
+        <v>0</v>
+      </c>
+      <c r="AX3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>40</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>40</v>
+      </c>
+      <c r="J4">
+        <v>40</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>40</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>40</v>
+      </c>
+      <c r="T4">
+        <v>100</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <v>40</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
+      </c>
+      <c r="Y4">
+        <v>40</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+      <c r="AA4">
+        <v>0</v>
+      </c>
+      <c r="AB4">
+        <v>0</v>
+      </c>
+      <c r="AC4">
+        <v>100</v>
+      </c>
+      <c r="AD4">
+        <v>100</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
+      </c>
+      <c r="AF4">
+        <v>40</v>
+      </c>
+      <c r="AG4">
+        <v>40</v>
+      </c>
+      <c r="AH4">
+        <v>0</v>
+      </c>
+      <c r="AI4">
+        <v>40</v>
+      </c>
+      <c r="AJ4">
+        <v>40</v>
+      </c>
+      <c r="AK4">
+        <v>0</v>
+      </c>
+      <c r="AL4">
+        <v>0</v>
+      </c>
+      <c r="AM4">
+        <v>0</v>
+      </c>
+      <c r="AN4">
+        <v>0</v>
+      </c>
+      <c r="AO4">
+        <v>0</v>
+      </c>
+      <c r="AP4">
+        <v>0</v>
+      </c>
+      <c r="AQ4">
+        <v>0</v>
+      </c>
+      <c r="AR4">
+        <v>0</v>
+      </c>
+      <c r="AS4">
+        <v>40</v>
+      </c>
+      <c r="AT4">
+        <v>0</v>
+      </c>
+      <c r="AU4">
+        <v>0</v>
+      </c>
+      <c r="AV4">
+        <v>0</v>
+      </c>
+      <c r="AW4">
+        <v>0</v>
+      </c>
+      <c r="AX4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>360</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>40</v>
+      </c>
+      <c r="D5">
+        <v>100</v>
+      </c>
+      <c r="E5">
+        <v>100</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>40</v>
+      </c>
+      <c r="H5">
+        <v>40</v>
+      </c>
+      <c r="I5">
+        <v>40</v>
+      </c>
+      <c r="J5">
+        <v>360</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>40</v>
+      </c>
+      <c r="M5">
+        <v>40</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>40</v>
+      </c>
+      <c r="Q5">
+        <v>40</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>40</v>
+      </c>
+      <c r="U5">
+        <v>40</v>
+      </c>
+      <c r="V5">
+        <v>40</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
+      <c r="X5">
+        <v>40</v>
+      </c>
+      <c r="Y5">
+        <v>0</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+      <c r="AA5">
+        <v>0</v>
+      </c>
+      <c r="AB5">
+        <v>40</v>
+      </c>
+      <c r="AC5">
+        <v>100</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <v>100</v>
+      </c>
+      <c r="AF5">
+        <v>0</v>
+      </c>
+      <c r="AG5">
+        <v>180</v>
+      </c>
+      <c r="AH5">
+        <v>40</v>
+      </c>
+      <c r="AI5">
+        <v>0</v>
+      </c>
+      <c r="AJ5">
+        <v>0</v>
+      </c>
+      <c r="AK5">
+        <v>0</v>
+      </c>
+      <c r="AL5">
+        <v>0</v>
+      </c>
+      <c r="AM5">
+        <v>0</v>
+      </c>
+      <c r="AN5">
+        <v>0</v>
+      </c>
+      <c r="AO5">
+        <v>0</v>
+      </c>
+      <c r="AP5">
+        <v>0</v>
+      </c>
+      <c r="AQ5">
+        <v>0</v>
+      </c>
+      <c r="AR5">
+        <v>0</v>
+      </c>
+      <c r="AS5">
+        <v>180</v>
+      </c>
+      <c r="AT5">
+        <v>40</v>
+      </c>
+      <c r="AU5">
+        <v>0</v>
+      </c>
+      <c r="AV5">
+        <v>0</v>
+      </c>
+      <c r="AW5">
+        <v>40</v>
+      </c>
+      <c r="AX5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <v>40</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>40</v>
+      </c>
+      <c r="F6">
+        <v>40</v>
+      </c>
+      <c r="G6">
+        <v>40</v>
+      </c>
+      <c r="H6">
+        <v>40</v>
+      </c>
+      <c r="I6">
+        <v>360</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>540</v>
+      </c>
+      <c r="L6">
+        <v>540</v>
+      </c>
+      <c r="M6">
+        <v>40</v>
+      </c>
+      <c r="N6">
+        <v>40</v>
+      </c>
+      <c r="O6">
+        <v>100</v>
+      </c>
+      <c r="P6">
+        <v>540</v>
+      </c>
+      <c r="Q6">
+        <v>100</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>360</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <v>360</v>
+      </c>
+      <c r="W6">
+        <v>40</v>
+      </c>
+      <c r="X6">
+        <v>0</v>
+      </c>
+      <c r="Y6">
+        <v>540</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+      <c r="AA6">
+        <v>40</v>
+      </c>
+      <c r="AB6">
+        <v>0</v>
+      </c>
+      <c r="AC6">
+        <v>100</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
+      </c>
+      <c r="AE6">
+        <v>0</v>
+      </c>
+      <c r="AF6">
+        <v>360</v>
+      </c>
+      <c r="AG6">
+        <v>40</v>
+      </c>
+      <c r="AH6">
+        <v>360</v>
+      </c>
+      <c r="AI6">
+        <v>1000</v>
+      </c>
+      <c r="AJ6">
+        <v>0</v>
+      </c>
+      <c r="AK6">
+        <v>0</v>
+      </c>
+      <c r="AL6">
+        <v>0</v>
+      </c>
+      <c r="AM6">
+        <v>0</v>
+      </c>
+      <c r="AN6">
+        <v>40</v>
+      </c>
+      <c r="AO6">
+        <v>540</v>
+      </c>
+      <c r="AP6">
+        <v>40</v>
+      </c>
+      <c r="AQ6">
+        <v>0</v>
+      </c>
+      <c r="AR6">
+        <v>0</v>
+      </c>
+      <c r="AS6">
+        <v>0</v>
+      </c>
+      <c r="AT6">
+        <v>0</v>
+      </c>
+      <c r="AU6">
+        <v>360</v>
+      </c>
+      <c r="AV6">
+        <v>40</v>
+      </c>
+      <c r="AW6">
+        <v>0</v>
+      </c>
+      <c r="AX6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A7">
+        <v>0</v>
+      </c>
+      <c r="B7">
+        <v>40</v>
+      </c>
+      <c r="C7">
+        <v>40</v>
+      </c>
+      <c r="D7">
+        <v>700</v>
+      </c>
+      <c r="E7">
+        <v>880</v>
+      </c>
+      <c r="F7">
+        <v>540</v>
+      </c>
+      <c r="G7">
+        <v>40</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>40</v>
+      </c>
+      <c r="L7">
+        <v>500</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>40</v>
+      </c>
+      <c r="O7">
+        <v>420</v>
+      </c>
+      <c r="P7">
+        <v>360</v>
+      </c>
+      <c r="Q7">
+        <v>180</v>
+      </c>
+      <c r="R7">
+        <v>40</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <v>40</v>
+      </c>
+      <c r="U7">
+        <v>680</v>
+      </c>
+      <c r="V7">
+        <v>0</v>
+      </c>
+      <c r="W7">
+        <v>360</v>
+      </c>
+      <c r="X7">
+        <v>0</v>
+      </c>
+      <c r="Y7">
+        <v>600</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+      <c r="AA7">
+        <v>40</v>
+      </c>
+      <c r="AB7">
+        <v>0</v>
+      </c>
+      <c r="AC7">
+        <v>0</v>
+      </c>
+      <c r="AD7">
+        <v>40</v>
+      </c>
+      <c r="AE7">
+        <v>0</v>
+      </c>
+      <c r="AF7">
+        <v>0</v>
+      </c>
+      <c r="AG7">
+        <v>40</v>
+      </c>
+      <c r="AH7">
+        <v>420</v>
+      </c>
+      <c r="AI7">
+        <v>1320</v>
+      </c>
+      <c r="AJ7">
+        <v>540</v>
+      </c>
+      <c r="AK7">
+        <v>40</v>
+      </c>
+      <c r="AL7">
+        <v>0</v>
+      </c>
+      <c r="AM7">
+        <v>0</v>
+      </c>
+      <c r="AN7">
+        <v>40</v>
+      </c>
+      <c r="AO7">
+        <v>40</v>
+      </c>
+      <c r="AP7">
+        <v>100</v>
+      </c>
+      <c r="AQ7">
+        <v>0</v>
+      </c>
+      <c r="AR7">
+        <v>0</v>
+      </c>
+      <c r="AS7">
+        <v>700</v>
+      </c>
+      <c r="AT7">
+        <v>0</v>
+      </c>
+      <c r="AU7">
+        <v>1000</v>
+      </c>
+      <c r="AV7">
+        <v>0</v>
+      </c>
+      <c r="AW7">
+        <v>540</v>
+      </c>
+      <c r="AX7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A8">
+        <v>40</v>
+      </c>
+      <c r="B8">
+        <v>40</v>
+      </c>
+      <c r="C8">
+        <v>1440</v>
+      </c>
+      <c r="D8">
+        <v>600</v>
+      </c>
+      <c r="E8">
+        <v>1080</v>
+      </c>
+      <c r="F8">
+        <v>360</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>360</v>
+      </c>
+      <c r="J8">
+        <v>360</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>840</v>
+      </c>
+      <c r="M8">
+        <v>1000</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>100</v>
+      </c>
+      <c r="P8">
+        <v>180</v>
+      </c>
+      <c r="Q8">
+        <v>700</v>
+      </c>
+      <c r="R8">
+        <v>360</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <v>40</v>
+      </c>
+      <c r="U8">
+        <v>0</v>
+      </c>
+      <c r="V8">
+        <v>1000</v>
+      </c>
+      <c r="W8">
+        <v>360</v>
+      </c>
+      <c r="X8">
+        <v>1000</v>
+      </c>
+      <c r="Y8">
+        <v>240</v>
+      </c>
+      <c r="Z8">
+        <v>40</v>
+      </c>
+      <c r="AA8">
+        <v>0</v>
+      </c>
+      <c r="AB8">
+        <v>0</v>
+      </c>
+      <c r="AC8">
+        <v>40</v>
+      </c>
+      <c r="AD8">
+        <v>40</v>
+      </c>
+      <c r="AE8">
+        <v>0</v>
+      </c>
+      <c r="AF8">
+        <v>1600</v>
+      </c>
+      <c r="AG8">
+        <v>100</v>
+      </c>
+      <c r="AH8">
+        <v>680</v>
+      </c>
+      <c r="AI8">
+        <v>100</v>
+      </c>
+      <c r="AJ8">
+        <v>760</v>
+      </c>
+      <c r="AK8">
+        <v>40</v>
+      </c>
+      <c r="AL8">
+        <v>0</v>
+      </c>
+      <c r="AM8">
+        <v>240</v>
+      </c>
+      <c r="AN8">
+        <v>540</v>
+      </c>
+      <c r="AO8">
+        <v>0</v>
+      </c>
+      <c r="AP8">
+        <v>180</v>
+      </c>
+      <c r="AQ8">
+        <v>0</v>
+      </c>
+      <c r="AR8">
+        <v>100</v>
+      </c>
+      <c r="AS8">
+        <v>0</v>
+      </c>
+      <c r="AT8">
+        <v>0</v>
+      </c>
+      <c r="AU8">
+        <v>540</v>
+      </c>
+      <c r="AV8">
+        <v>100</v>
+      </c>
+      <c r="AW8">
+        <v>40</v>
+      </c>
+      <c r="AX8">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="9" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A9">
+        <v>540</v>
+      </c>
+      <c r="B9">
+        <v>540</v>
+      </c>
+      <c r="C9">
+        <v>40</v>
+      </c>
+      <c r="D9">
+        <v>360</v>
+      </c>
+      <c r="E9">
+        <v>100</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>40</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>100</v>
+      </c>
+      <c r="J9">
+        <v>540</v>
+      </c>
+      <c r="K9">
+        <v>40</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>1180</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>100</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>100</v>
+      </c>
+      <c r="S9">
+        <v>1320</v>
+      </c>
+      <c r="T9">
+        <v>360</v>
+      </c>
+      <c r="U9">
+        <v>40</v>
+      </c>
+      <c r="V9">
+        <v>0</v>
+      </c>
+      <c r="W9">
+        <v>0</v>
+      </c>
+      <c r="X9">
+        <v>40</v>
+      </c>
+      <c r="Y9">
+        <v>0</v>
+      </c>
+      <c r="Z9">
+        <v>1380</v>
+      </c>
+      <c r="AA9">
+        <v>0</v>
+      </c>
+      <c r="AB9">
+        <v>420</v>
+      </c>
+      <c r="AC9">
+        <v>360</v>
+      </c>
+      <c r="AD9">
+        <v>360</v>
+      </c>
+      <c r="AE9">
+        <v>0</v>
+      </c>
+      <c r="AF9">
+        <v>1180</v>
+      </c>
+      <c r="AG9">
+        <v>760</v>
+      </c>
+      <c r="AH9">
+        <v>0</v>
+      </c>
+      <c r="AI9">
+        <v>180</v>
+      </c>
+      <c r="AJ9">
+        <v>1580</v>
+      </c>
+      <c r="AK9">
+        <v>0</v>
+      </c>
+      <c r="AL9">
+        <v>700</v>
+      </c>
+      <c r="AM9">
+        <v>1060</v>
+      </c>
+      <c r="AN9">
+        <v>360</v>
+      </c>
+      <c r="AO9">
+        <v>360</v>
+      </c>
+      <c r="AP9">
+        <v>600</v>
+      </c>
+      <c r="AQ9">
+        <v>40</v>
+      </c>
+      <c r="AR9">
+        <v>0</v>
+      </c>
+      <c r="AS9">
+        <v>0</v>
+      </c>
+      <c r="AT9">
+        <v>100</v>
+      </c>
+      <c r="AU9">
+        <v>0</v>
+      </c>
+      <c r="AV9">
+        <v>280</v>
+      </c>
+      <c r="AW9">
+        <v>40</v>
+      </c>
+      <c r="AX9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A10">
+        <v>40</v>
+      </c>
+      <c r="B10">
+        <v>100</v>
+      </c>
+      <c r="C10">
+        <v>40</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>100</v>
+      </c>
+      <c r="F10">
+        <v>1180</v>
+      </c>
+      <c r="G10">
+        <v>40</v>
+      </c>
+      <c r="H10">
+        <v>40</v>
+      </c>
+      <c r="I10">
+        <v>1320</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>40</v>
+      </c>
+      <c r="L10">
+        <v>1020</v>
+      </c>
+      <c r="M10">
+        <v>40</v>
+      </c>
+      <c r="N10">
+        <v>180</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>1840</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="T10">
+        <v>40</v>
+      </c>
+      <c r="U10">
+        <v>0</v>
+      </c>
+      <c r="V10">
+        <v>0</v>
+      </c>
+      <c r="W10">
+        <v>40</v>
+      </c>
+      <c r="X10">
+        <v>1270</v>
+      </c>
+      <c r="Y10">
+        <v>760</v>
+      </c>
+      <c r="Z10">
+        <v>420</v>
+      </c>
+      <c r="AA10">
+        <v>40</v>
+      </c>
+      <c r="AB10">
+        <v>1000</v>
+      </c>
+      <c r="AC10">
+        <v>540</v>
+      </c>
+      <c r="AD10">
+        <v>1780</v>
+      </c>
+      <c r="AE10">
+        <v>0</v>
+      </c>
+      <c r="AF10">
+        <v>2880</v>
+      </c>
+      <c r="AG10">
+        <v>40</v>
+      </c>
+      <c r="AH10">
+        <v>940</v>
+      </c>
+      <c r="AI10">
+        <v>1000</v>
+      </c>
+      <c r="AJ10">
+        <v>0</v>
+      </c>
+      <c r="AK10">
+        <v>40</v>
+      </c>
+      <c r="AL10">
+        <v>0</v>
+      </c>
+      <c r="AM10">
+        <v>0</v>
+      </c>
+      <c r="AN10">
+        <v>500</v>
+      </c>
+      <c r="AO10">
+        <v>1660</v>
+      </c>
+      <c r="AP10">
+        <v>100</v>
+      </c>
+      <c r="AQ10">
+        <v>40</v>
+      </c>
+      <c r="AR10">
+        <v>540</v>
+      </c>
+      <c r="AS10">
+        <v>280</v>
+      </c>
+      <c r="AT10">
+        <v>40</v>
+      </c>
+      <c r="AU10">
+        <v>40</v>
+      </c>
+      <c r="AV10">
+        <v>700</v>
+      </c>
+      <c r="AW10">
+        <v>100</v>
+      </c>
+      <c r="AX10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A11">
+        <v>0</v>
+      </c>
+      <c r="B11">
+        <v>1760</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>1260</v>
+      </c>
+      <c r="E11">
+        <v>180</v>
+      </c>
+      <c r="F11">
+        <v>1260</v>
+      </c>
+      <c r="G11">
+        <v>1060</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>1860</v>
+      </c>
+      <c r="J11">
+        <v>540</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>1020</v>
+      </c>
+      <c r="M11">
+        <v>1000</v>
+      </c>
+      <c r="N11">
+        <v>40</v>
+      </c>
+      <c r="O11">
+        <v>280</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>1260</v>
+      </c>
+      <c r="R11">
+        <v>2280</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <v>40</v>
+      </c>
+      <c r="U11">
+        <v>40</v>
+      </c>
+      <c r="V11">
+        <v>3280</v>
+      </c>
+      <c r="W11">
+        <v>40</v>
+      </c>
+      <c r="X11">
+        <v>1620</v>
+      </c>
+      <c r="Y11">
+        <v>0</v>
+      </c>
+      <c r="Z11">
+        <v>420</v>
+      </c>
+      <c r="AA11">
+        <v>2440</v>
+      </c>
+      <c r="AB11">
+        <v>2280</v>
+      </c>
+      <c r="AC11">
+        <v>1320</v>
+      </c>
+      <c r="AD11">
+        <v>1780</v>
+      </c>
+      <c r="AE11">
+        <v>0</v>
+      </c>
+      <c r="AF11">
+        <v>40</v>
+      </c>
+      <c r="AG11">
+        <v>700</v>
+      </c>
+      <c r="AH11">
+        <v>1260</v>
+      </c>
+      <c r="AI11">
+        <v>1000</v>
+      </c>
+      <c r="AJ11">
+        <v>1600</v>
+      </c>
+      <c r="AK11">
+        <v>700</v>
+      </c>
+      <c r="AL11">
+        <v>880</v>
+      </c>
+      <c r="AM11">
+        <v>2840</v>
+      </c>
+      <c r="AN11">
+        <v>3180</v>
+      </c>
+      <c r="AO11">
+        <v>0</v>
+      </c>
+      <c r="AP11">
+        <v>360</v>
+      </c>
+      <c r="AQ11">
+        <v>1820</v>
+      </c>
+      <c r="AR11">
+        <v>5280</v>
+      </c>
+      <c r="AS11">
+        <v>3440</v>
+      </c>
+      <c r="AT11">
+        <v>0</v>
+      </c>
+      <c r="AU11">
+        <v>40</v>
+      </c>
+      <c r="AV11">
+        <v>0</v>
+      </c>
+      <c r="AW11">
+        <v>360</v>
+      </c>
+      <c r="AX11">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="12" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A12">
+        <v>100</v>
+      </c>
+      <c r="B12">
+        <v>100</v>
+      </c>
+      <c r="C12">
+        <v>6640</v>
+      </c>
+      <c r="D12">
+        <v>600</v>
+      </c>
+      <c r="E12">
+        <v>2620</v>
+      </c>
+      <c r="F12">
+        <v>420</v>
+      </c>
+      <c r="G12">
+        <v>1940</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>1440</v>
+      </c>
+      <c r="K12">
+        <v>40</v>
+      </c>
+      <c r="L12">
+        <v>1020</v>
+      </c>
+      <c r="M12">
+        <v>3160</v>
+      </c>
+      <c r="N12">
+        <v>40</v>
+      </c>
+      <c r="O12">
+        <v>180</v>
+      </c>
+      <c r="P12">
+        <v>2780</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>5840</v>
+      </c>
+      <c r="S12">
+        <v>40</v>
+      </c>
+      <c r="T12">
+        <v>1260</v>
+      </c>
+      <c r="U12">
+        <v>40</v>
+      </c>
+      <c r="V12">
+        <v>0</v>
+      </c>
+      <c r="W12">
+        <v>100</v>
+      </c>
+      <c r="X12">
+        <v>1270</v>
+      </c>
+      <c r="Y12">
+        <v>0</v>
+      </c>
+      <c r="Z12">
+        <v>3280</v>
+      </c>
+      <c r="AA12">
+        <v>40</v>
+      </c>
+      <c r="AB12">
+        <v>0</v>
+      </c>
+      <c r="AC12">
+        <v>3020</v>
+      </c>
+      <c r="AD12">
+        <v>0</v>
+      </c>
+      <c r="AE12">
+        <v>0</v>
+      </c>
+      <c r="AF12">
+        <v>0</v>
+      </c>
+      <c r="AG12">
+        <v>700</v>
+      </c>
+      <c r="AH12">
+        <v>1440</v>
+      </c>
+      <c r="AI12">
+        <v>6500</v>
+      </c>
+      <c r="AJ12">
+        <v>3300</v>
+      </c>
+      <c r="AK12">
+        <v>40</v>
+      </c>
+      <c r="AL12">
+        <v>900</v>
+      </c>
+      <c r="AM12">
+        <v>2840</v>
+      </c>
+      <c r="AN12">
+        <v>3120</v>
+      </c>
+      <c r="AO12">
+        <v>1060</v>
+      </c>
+      <c r="AP12">
+        <v>1210</v>
+      </c>
+      <c r="AQ12">
+        <v>600</v>
+      </c>
+      <c r="AR12">
+        <v>0</v>
+      </c>
+      <c r="AS12">
+        <v>360</v>
+      </c>
+      <c r="AT12">
+        <v>1000</v>
+      </c>
+      <c r="AU12">
+        <v>540</v>
+      </c>
+      <c r="AV12">
+        <v>2280</v>
+      </c>
+      <c r="AW12">
+        <v>0</v>
+      </c>
+      <c r="AX12">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="13" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A13">
+        <v>400</v>
+      </c>
+      <c r="B13">
+        <v>5140</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>600</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>100</v>
+      </c>
+      <c r="G13">
+        <v>7100</v>
+      </c>
+      <c r="H13">
+        <v>40</v>
+      </c>
+      <c r="I13">
+        <v>40</v>
+      </c>
+      <c r="J13">
+        <v>100</v>
+      </c>
+      <c r="K13">
+        <v>3380</v>
+      </c>
+      <c r="L13">
+        <v>840</v>
+      </c>
+      <c r="M13">
+        <v>6090</v>
+      </c>
+      <c r="N13">
+        <v>1680</v>
+      </c>
+      <c r="O13">
+        <v>700</v>
+      </c>
+      <c r="P13">
+        <v>3040</v>
+      </c>
+      <c r="Q13">
+        <v>40</v>
+      </c>
+      <c r="R13">
+        <v>2280</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <v>0</v>
+      </c>
+      <c r="U13">
+        <v>40</v>
+      </c>
+      <c r="V13">
+        <v>0</v>
+      </c>
+      <c r="W13">
+        <v>1260</v>
+      </c>
+      <c r="X13">
+        <v>100</v>
+      </c>
+      <c r="Y13">
+        <v>1000</v>
+      </c>
+      <c r="Z13">
+        <v>0</v>
+      </c>
+      <c r="AA13">
+        <v>0</v>
+      </c>
+      <c r="AB13">
+        <v>0</v>
+      </c>
+      <c r="AC13">
+        <v>5760</v>
+      </c>
+      <c r="AD13">
+        <v>360</v>
+      </c>
+      <c r="AE13">
+        <v>0</v>
+      </c>
+      <c r="AF13">
+        <v>5920</v>
+      </c>
+      <c r="AG13">
+        <v>760</v>
+      </c>
+      <c r="AH13">
+        <v>5260</v>
+      </c>
+      <c r="AI13">
+        <v>7220</v>
+      </c>
+      <c r="AJ13">
+        <v>3880</v>
+      </c>
+      <c r="AK13">
+        <v>0</v>
+      </c>
+      <c r="AL13">
+        <v>420</v>
+      </c>
+      <c r="AM13">
+        <v>360</v>
+      </c>
+      <c r="AN13">
+        <v>6280</v>
+      </c>
+      <c r="AO13">
+        <v>1060</v>
+      </c>
+      <c r="AP13">
+        <v>1000</v>
+      </c>
+      <c r="AQ13">
+        <v>40</v>
+      </c>
+      <c r="AR13">
+        <v>100</v>
+      </c>
+      <c r="AS13">
+        <v>2880</v>
+      </c>
+      <c r="AT13">
+        <v>4740</v>
+      </c>
+      <c r="AU13">
+        <v>0</v>
+      </c>
+      <c r="AV13">
+        <v>0</v>
+      </c>
+      <c r="AW13">
+        <v>180</v>
+      </c>
+      <c r="AX13">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A14">
+        <v>2700</v>
+      </c>
+      <c r="B14">
+        <v>5670</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>180</v>
+      </c>
+      <c r="F14">
+        <v>40</v>
+      </c>
+      <c r="G14">
+        <v>7100</v>
+      </c>
+      <c r="H14">
+        <v>180</v>
+      </c>
+      <c r="I14">
+        <v>40</v>
+      </c>
+      <c r="J14">
+        <v>1680</v>
+      </c>
+      <c r="K14">
+        <v>40</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>6570</v>
+      </c>
+      <c r="N14">
+        <v>1740</v>
+      </c>
+      <c r="O14">
+        <v>40</v>
+      </c>
+      <c r="P14">
+        <v>5600</v>
+      </c>
+      <c r="Q14">
+        <v>40</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+      <c r="T14">
+        <v>360</v>
+      </c>
+      <c r="U14">
+        <v>40</v>
+      </c>
+      <c r="V14">
+        <v>0</v>
+      </c>
+      <c r="W14">
+        <v>0</v>
+      </c>
+      <c r="X14">
+        <v>240</v>
+      </c>
+      <c r="Y14">
+        <v>840</v>
+      </c>
+      <c r="Z14">
+        <v>6400</v>
+      </c>
+      <c r="AA14">
+        <v>40</v>
+      </c>
+      <c r="AB14">
+        <v>0</v>
+      </c>
+      <c r="AC14">
+        <v>5760</v>
+      </c>
+      <c r="AD14">
+        <v>0</v>
+      </c>
+      <c r="AE14">
+        <v>0</v>
+      </c>
+      <c r="AF14">
+        <v>6740</v>
+      </c>
+      <c r="AG14">
+        <v>40</v>
+      </c>
+      <c r="AH14">
+        <v>7120</v>
+      </c>
+      <c r="AI14">
+        <v>100</v>
+      </c>
+      <c r="AJ14">
+        <v>6720</v>
+      </c>
+      <c r="AK14">
+        <v>360</v>
+      </c>
+      <c r="AL14">
+        <v>40</v>
+      </c>
+      <c r="AM14">
+        <v>360</v>
+      </c>
+      <c r="AN14">
+        <v>3200</v>
+      </c>
+      <c r="AO14">
+        <v>0</v>
+      </c>
+      <c r="AP14">
+        <v>0</v>
+      </c>
+      <c r="AQ14">
+        <v>2820</v>
+      </c>
+      <c r="AR14">
+        <v>180</v>
+      </c>
+      <c r="AS14">
+        <v>0</v>
+      </c>
+      <c r="AT14">
+        <v>4800</v>
+      </c>
+      <c r="AU14">
+        <v>100</v>
+      </c>
+      <c r="AV14">
+        <v>0</v>
+      </c>
+      <c r="AW14">
+        <v>2400</v>
+      </c>
+      <c r="AX14">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A15">
+        <v>2880</v>
+      </c>
+      <c r="B15">
+        <v>5670</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>3330</v>
+      </c>
+      <c r="F15">
+        <v>420</v>
+      </c>
+      <c r="G15">
+        <v>100</v>
+      </c>
+      <c r="H15">
+        <v>100</v>
+      </c>
+      <c r="I15">
+        <v>600</v>
+      </c>
+      <c r="J15">
+        <v>6440</v>
+      </c>
+      <c r="K15">
+        <v>40</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>6570</v>
+      </c>
+      <c r="N15">
+        <v>1680</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>40</v>
+      </c>
+      <c r="Q15">
+        <v>40</v>
+      </c>
+      <c r="R15">
+        <v>40</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+      <c r="T15">
+        <v>1000</v>
+      </c>
+      <c r="U15">
+        <v>40</v>
+      </c>
+      <c r="V15">
+        <v>3300</v>
+      </c>
+      <c r="W15">
+        <v>3100</v>
+      </c>
+      <c r="X15">
+        <v>7570</v>
+      </c>
+      <c r="Y15">
+        <v>8680</v>
+      </c>
+      <c r="Z15">
+        <v>7540</v>
+      </c>
+      <c r="AA15">
+        <v>40</v>
+      </c>
+      <c r="AB15">
+        <v>0</v>
+      </c>
+      <c r="AC15">
+        <v>6160</v>
+      </c>
+      <c r="AD15">
+        <v>940</v>
+      </c>
+      <c r="AE15">
+        <v>40</v>
+      </c>
+      <c r="AF15">
+        <v>0</v>
+      </c>
+      <c r="AG15">
+        <v>100</v>
+      </c>
+      <c r="AH15">
+        <v>3200</v>
+      </c>
+      <c r="AI15">
+        <v>8980</v>
+      </c>
+      <c r="AJ15">
+        <v>6720</v>
+      </c>
+      <c r="AK15">
+        <v>0</v>
+      </c>
+      <c r="AL15">
+        <v>3440</v>
+      </c>
+      <c r="AM15">
+        <v>560</v>
+      </c>
+      <c r="AN15">
+        <v>100</v>
+      </c>
+      <c r="AO15">
+        <v>700</v>
+      </c>
+      <c r="AP15">
+        <v>0</v>
+      </c>
+      <c r="AQ15">
+        <v>3640</v>
+      </c>
+      <c r="AR15">
+        <v>40</v>
+      </c>
+      <c r="AS15">
+        <v>360</v>
+      </c>
+      <c r="AT15">
+        <v>1000</v>
+      </c>
+      <c r="AU15">
+        <v>7080</v>
+      </c>
+      <c r="AV15">
+        <v>0</v>
+      </c>
+      <c r="AW15">
+        <v>2680</v>
+      </c>
+      <c r="AX15">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="16" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A16">
+        <v>0</v>
+      </c>
+      <c r="B16">
+        <v>40</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>700</v>
+      </c>
+      <c r="E16">
+        <v>3250</v>
+      </c>
+      <c r="F16">
+        <v>420</v>
+      </c>
+      <c r="G16">
+        <v>10940</v>
+      </c>
+      <c r="H16">
+        <v>40</v>
+      </c>
+      <c r="I16">
+        <v>540</v>
+      </c>
+      <c r="J16">
+        <v>40</v>
+      </c>
+      <c r="K16">
+        <v>40</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>40</v>
+      </c>
+      <c r="O16">
+        <v>3800</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>1000</v>
+      </c>
+      <c r="R16">
+        <v>40</v>
+      </c>
+      <c r="S16">
+        <v>40</v>
+      </c>
+      <c r="T16">
+        <v>4980</v>
+      </c>
+      <c r="U16">
+        <v>4430</v>
+      </c>
+      <c r="V16">
+        <v>1210</v>
+      </c>
+      <c r="W16">
+        <v>1000</v>
+      </c>
+      <c r="X16">
+        <v>40</v>
+      </c>
+      <c r="Y16">
+        <v>12760</v>
+      </c>
+      <c r="Z16">
+        <v>7620</v>
+      </c>
+      <c r="AA16">
+        <v>0</v>
+      </c>
+      <c r="AB16">
+        <v>1320</v>
+      </c>
+      <c r="AC16">
+        <v>7810</v>
+      </c>
+      <c r="AD16">
+        <v>540</v>
+      </c>
+      <c r="AE16">
+        <v>700</v>
+      </c>
+      <c r="AF16">
+        <v>10820</v>
+      </c>
+      <c r="AG16">
+        <v>40</v>
+      </c>
+      <c r="AH16">
+        <v>4080</v>
+      </c>
+      <c r="AI16">
+        <v>40</v>
+      </c>
+      <c r="AJ16">
+        <v>6780</v>
+      </c>
+      <c r="AK16">
+        <v>0</v>
+      </c>
+      <c r="AL16">
+        <v>360</v>
+      </c>
+      <c r="AM16">
+        <v>3660</v>
+      </c>
+      <c r="AN16">
+        <v>7020</v>
+      </c>
+      <c r="AO16">
+        <v>0</v>
+      </c>
+      <c r="AP16">
+        <v>5260</v>
+      </c>
+      <c r="AQ16">
+        <v>6860</v>
+      </c>
+      <c r="AR16">
+        <v>40</v>
+      </c>
+      <c r="AS16">
+        <v>40</v>
+      </c>
+      <c r="AT16">
+        <v>8200</v>
+      </c>
+      <c r="AU16">
+        <v>7080</v>
+      </c>
+      <c r="AV16">
+        <v>0</v>
+      </c>
+      <c r="AW16">
+        <v>420</v>
+      </c>
+      <c r="AX16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A17">
+        <v>0</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>40</v>
+      </c>
+      <c r="D17">
+        <v>100</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>420</v>
+      </c>
+      <c r="G17">
+        <v>10940</v>
+      </c>
+      <c r="H17">
+        <v>9680</v>
+      </c>
+      <c r="I17">
+        <v>4450</v>
+      </c>
+      <c r="J17">
+        <v>40</v>
+      </c>
+      <c r="K17">
+        <v>1760</v>
+      </c>
+      <c r="L17">
+        <v>12750</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>1340</v>
+      </c>
+      <c r="P17">
+        <v>100</v>
+      </c>
+      <c r="Q17">
+        <v>2600</v>
+      </c>
+      <c r="R17">
+        <v>40</v>
+      </c>
+      <c r="S17">
+        <v>40</v>
+      </c>
+      <c r="T17">
+        <v>40</v>
+      </c>
+      <c r="U17">
+        <v>4370</v>
+      </c>
+      <c r="V17">
+        <v>40</v>
+      </c>
+      <c r="W17">
+        <v>100</v>
+      </c>
+      <c r="X17">
+        <v>180</v>
+      </c>
+      <c r="Y17">
+        <v>13930</v>
+      </c>
+      <c r="Z17">
+        <v>12500</v>
+      </c>
+      <c r="AA17">
+        <v>3160</v>
+      </c>
+      <c r="AB17">
+        <v>40</v>
+      </c>
+      <c r="AC17">
+        <v>7810</v>
+      </c>
+      <c r="AD17">
+        <v>1180</v>
+      </c>
+      <c r="AE17">
+        <v>700</v>
+      </c>
+      <c r="AF17">
+        <v>40</v>
+      </c>
+      <c r="AG17">
+        <v>500</v>
+      </c>
+      <c r="AH17">
+        <v>8060</v>
+      </c>
+      <c r="AI17">
+        <v>40</v>
+      </c>
+      <c r="AJ17">
+        <v>40</v>
+      </c>
+      <c r="AK17">
+        <v>0</v>
+      </c>
+      <c r="AL17">
+        <v>1540</v>
+      </c>
+      <c r="AM17">
+        <v>360</v>
+      </c>
+      <c r="AN17">
+        <v>7220</v>
+      </c>
+      <c r="AO17">
+        <v>100</v>
+      </c>
+      <c r="AP17">
+        <v>0</v>
+      </c>
+      <c r="AQ17">
+        <v>1180</v>
+      </c>
+      <c r="AR17">
+        <v>13680</v>
+      </c>
+      <c r="AS17">
+        <v>360</v>
+      </c>
+      <c r="AT17">
+        <v>5220</v>
+      </c>
+      <c r="AU17">
+        <v>2460</v>
+      </c>
+      <c r="AV17">
+        <v>0</v>
+      </c>
+      <c r="AW17">
+        <v>1840</v>
+      </c>
+      <c r="AX17">
+        <v>5660</v>
+      </c>
+    </row>
+    <row r="18" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A18">
+        <v>0</v>
+      </c>
+      <c r="B18">
+        <v>40</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>700</v>
+      </c>
+      <c r="E18">
+        <v>40</v>
+      </c>
+      <c r="F18">
+        <v>6000</v>
+      </c>
+      <c r="G18">
+        <v>4060</v>
+      </c>
+      <c r="H18">
+        <v>240</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>4380</v>
+      </c>
+      <c r="K18">
+        <v>40</v>
+      </c>
+      <c r="L18">
+        <v>4690</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>4740</v>
+      </c>
+      <c r="O18">
+        <v>40</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>2600</v>
+      </c>
+      <c r="R18">
+        <v>360</v>
+      </c>
+      <c r="S18">
+        <v>5660</v>
+      </c>
+      <c r="T18">
+        <v>13500</v>
+      </c>
+      <c r="U18">
+        <v>280</v>
+      </c>
+      <c r="V18">
+        <v>0</v>
+      </c>
+      <c r="W18">
+        <v>180</v>
+      </c>
+      <c r="X18">
+        <v>40</v>
+      </c>
+      <c r="Y18">
+        <v>9110</v>
+      </c>
+      <c r="Z18">
+        <v>12500</v>
+      </c>
+      <c r="AA18">
+        <v>0</v>
+      </c>
+      <c r="AB18">
+        <v>0</v>
+      </c>
+      <c r="AC18">
+        <v>40</v>
+      </c>
+      <c r="AD18">
+        <v>360</v>
+      </c>
+      <c r="AE18">
+        <v>9600</v>
+      </c>
+      <c r="AF18">
+        <v>100</v>
+      </c>
+      <c r="AG18">
+        <v>40</v>
+      </c>
+      <c r="AH18">
+        <v>11700</v>
+      </c>
+      <c r="AI18">
+        <v>8960</v>
+      </c>
+      <c r="AJ18">
+        <v>8350</v>
+      </c>
+      <c r="AK18">
+        <v>0</v>
+      </c>
+      <c r="AL18">
+        <v>1000</v>
+      </c>
+      <c r="AM18">
+        <v>560</v>
+      </c>
+      <c r="AN18">
+        <v>17400</v>
+      </c>
+      <c r="AO18">
+        <v>1180</v>
+      </c>
+      <c r="AP18">
+        <v>5840</v>
+      </c>
+      <c r="AQ18">
+        <v>0</v>
+      </c>
+      <c r="AR18">
+        <v>14910</v>
+      </c>
+      <c r="AS18">
+        <v>5260</v>
+      </c>
+      <c r="AT18">
+        <v>5320</v>
+      </c>
+      <c r="AU18">
+        <v>7800</v>
+      </c>
+      <c r="AV18">
+        <v>540</v>
+      </c>
+      <c r="AW18">
+        <v>2880</v>
+      </c>
+      <c r="AX18">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A19">
+        <v>11040</v>
+      </c>
+      <c r="B19">
+        <v>8760</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>100</v>
+      </c>
+      <c r="E19">
+        <v>180</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>4300</v>
+      </c>
+      <c r="H19">
+        <v>100</v>
+      </c>
+      <c r="I19">
+        <v>40</v>
+      </c>
+      <c r="J19">
+        <v>40</v>
+      </c>
+      <c r="K19">
+        <v>360</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>4740</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>100</v>
+      </c>
+      <c r="Q19">
+        <v>100</v>
+      </c>
+      <c r="R19">
+        <v>2280</v>
+      </c>
+      <c r="S19">
+        <v>12900</v>
+      </c>
+      <c r="T19">
+        <v>40</v>
+      </c>
+      <c r="U19">
+        <v>0</v>
+      </c>
+      <c r="V19">
+        <v>15620</v>
+      </c>
+      <c r="W19">
+        <v>0</v>
+      </c>
+      <c r="X19">
+        <v>0</v>
+      </c>
+      <c r="Y19">
+        <v>9110</v>
+      </c>
+      <c r="Z19">
+        <v>16690</v>
+      </c>
+      <c r="AA19">
+        <v>40</v>
+      </c>
+      <c r="AB19">
+        <v>9240</v>
+      </c>
+      <c r="AC19">
+        <v>8670</v>
+      </c>
+      <c r="AD19">
+        <v>360</v>
+      </c>
+      <c r="AE19">
+        <v>360</v>
+      </c>
+      <c r="AF19">
+        <v>360</v>
+      </c>
+      <c r="AG19">
+        <v>7650</v>
+      </c>
+      <c r="AH19">
+        <v>11760</v>
+      </c>
+      <c r="AI19">
+        <v>40</v>
+      </c>
+      <c r="AJ19">
+        <v>40</v>
+      </c>
+      <c r="AK19">
+        <v>1240</v>
+      </c>
+      <c r="AL19">
+        <v>1260</v>
+      </c>
+      <c r="AM19">
+        <v>420</v>
+      </c>
+      <c r="AN19">
+        <v>7020</v>
+      </c>
+      <c r="AO19">
+        <v>1340</v>
+      </c>
+      <c r="AP19">
+        <v>10100</v>
+      </c>
+      <c r="AQ19">
+        <v>100</v>
+      </c>
+      <c r="AR19">
+        <v>0</v>
+      </c>
+      <c r="AS19">
+        <v>360</v>
+      </c>
+      <c r="AT19">
+        <v>5220</v>
+      </c>
+      <c r="AU19">
+        <v>2520</v>
+      </c>
+      <c r="AV19">
+        <v>0</v>
+      </c>
+      <c r="AW19">
+        <v>2140</v>
+      </c>
+      <c r="AX19">
+        <v>6340</v>
+      </c>
+    </row>
+    <row r="20" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A20">
+        <v>0</v>
+      </c>
+      <c r="B20">
+        <v>40</v>
+      </c>
+      <c r="C20">
+        <v>540</v>
+      </c>
+      <c r="D20">
+        <v>29980</v>
+      </c>
+      <c r="E20">
+        <v>1210</v>
+      </c>
+      <c r="F20">
+        <v>420</v>
+      </c>
+      <c r="G20">
+        <v>4300</v>
+      </c>
+      <c r="H20">
+        <v>100</v>
+      </c>
+      <c r="I20">
+        <v>18520</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>5400</v>
+      </c>
+      <c r="M20">
+        <v>12420</v>
+      </c>
+      <c r="N20">
+        <v>40</v>
+      </c>
+      <c r="O20">
+        <v>5950</v>
+      </c>
+      <c r="P20">
+        <v>20060</v>
+      </c>
+      <c r="Q20">
+        <v>40</v>
+      </c>
+      <c r="R20">
+        <v>2440</v>
+      </c>
+      <c r="S20">
+        <v>40</v>
+      </c>
+      <c r="T20">
+        <v>0</v>
+      </c>
+      <c r="U20">
+        <v>15240</v>
+      </c>
+      <c r="V20">
+        <v>420</v>
+      </c>
+      <c r="W20">
+        <v>40</v>
+      </c>
+      <c r="X20">
+        <v>100</v>
+      </c>
+      <c r="Y20">
+        <v>0</v>
+      </c>
+      <c r="Z20">
+        <v>0</v>
+      </c>
+      <c r="AA20">
+        <v>2700</v>
+      </c>
+      <c r="AB20">
+        <v>0</v>
+      </c>
+      <c r="AC20">
+        <v>3840</v>
+      </c>
+      <c r="AD20">
+        <v>19770</v>
+      </c>
+      <c r="AE20">
+        <v>8860</v>
+      </c>
+      <c r="AF20">
+        <v>2680</v>
+      </c>
+      <c r="AG20">
+        <v>40</v>
+      </c>
+      <c r="AH20">
+        <v>16820</v>
+      </c>
+      <c r="AI20">
+        <v>360</v>
+      </c>
+      <c r="AJ20">
+        <v>8350</v>
+      </c>
+      <c r="AK20">
+        <v>1270</v>
+      </c>
+      <c r="AL20">
+        <v>2800</v>
+      </c>
+      <c r="AM20">
+        <v>40</v>
+      </c>
+      <c r="AN20">
+        <v>0</v>
+      </c>
+      <c r="AO20">
+        <v>0</v>
+      </c>
+      <c r="AP20">
+        <v>10700</v>
+      </c>
+      <c r="AQ20">
+        <v>100</v>
+      </c>
+      <c r="AR20">
+        <v>0</v>
+      </c>
+      <c r="AS20">
+        <v>40</v>
+      </c>
+      <c r="AT20">
+        <v>360</v>
+      </c>
+      <c r="AU20">
+        <v>10780</v>
+      </c>
+      <c r="AV20">
+        <v>0</v>
+      </c>
+      <c r="AW20">
+        <v>3340</v>
+      </c>
+      <c r="AX20">
+        <v>6340</v>
+      </c>
+    </row>
+    <row r="21" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A21">
+        <v>1240</v>
+      </c>
+      <c r="B21">
+        <v>40</v>
+      </c>
+      <c r="C21">
+        <v>40</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>1270</v>
+      </c>
+      <c r="F21">
+        <v>420</v>
+      </c>
+      <c r="G21">
+        <v>25980</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>18520</v>
+      </c>
+      <c r="J21">
+        <v>40</v>
+      </c>
+      <c r="K21">
+        <v>3600</v>
+      </c>
+      <c r="L21">
+        <v>9180</v>
+      </c>
+      <c r="M21">
+        <v>6440</v>
+      </c>
+      <c r="N21">
+        <v>13400</v>
+      </c>
+      <c r="O21">
+        <v>180</v>
+      </c>
+      <c r="P21">
+        <v>40</v>
+      </c>
+      <c r="Q21">
+        <v>40</v>
+      </c>
+      <c r="R21">
+        <v>1060</v>
+      </c>
+      <c r="S21">
+        <v>180</v>
+      </c>
+      <c r="T21">
+        <v>13250</v>
+      </c>
+      <c r="U21">
+        <v>700</v>
+      </c>
+      <c r="V21">
+        <v>1980</v>
+      </c>
+      <c r="W21">
+        <v>0</v>
+      </c>
+      <c r="X21">
+        <v>180</v>
+      </c>
+      <c r="Y21">
+        <v>20650</v>
+      </c>
+      <c r="Z21">
+        <v>4070</v>
+      </c>
+      <c r="AA21">
+        <v>40</v>
+      </c>
+      <c r="AB21">
+        <v>40</v>
+      </c>
+      <c r="AC21">
+        <v>5480</v>
+      </c>
+      <c r="AD21">
+        <v>19770</v>
+      </c>
+      <c r="AE21">
+        <v>1720</v>
+      </c>
+      <c r="AF21">
+        <v>3240</v>
+      </c>
+      <c r="AG21">
+        <v>40</v>
+      </c>
+      <c r="AH21">
+        <v>23700</v>
+      </c>
+      <c r="AI21">
+        <v>360</v>
+      </c>
+      <c r="AJ21">
+        <v>0</v>
+      </c>
+      <c r="AK21">
+        <v>40</v>
+      </c>
+      <c r="AL21">
+        <v>1500</v>
+      </c>
+      <c r="AM21">
+        <v>40</v>
+      </c>
+      <c r="AN21">
+        <v>25240</v>
+      </c>
+      <c r="AO21">
+        <v>1240</v>
+      </c>
+      <c r="AP21">
+        <v>10540</v>
+      </c>
+      <c r="AQ21">
+        <v>100</v>
+      </c>
+      <c r="AR21">
+        <v>0</v>
+      </c>
+      <c r="AS21">
+        <v>19600</v>
+      </c>
+      <c r="AT21">
+        <v>180</v>
+      </c>
+      <c r="AU21">
+        <v>4570</v>
+      </c>
+      <c r="AV21">
+        <v>0</v>
+      </c>
+      <c r="AW21">
+        <v>0</v>
+      </c>
+      <c r="AX21">
+        <v>6340</v>
+      </c>
+    </row>
+    <row r="22" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A22">
+        <v>0</v>
+      </c>
+      <c r="B22">
+        <v>40</v>
+      </c>
+      <c r="C22">
+        <v>40</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>16580</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>40</v>
+      </c>
+      <c r="H22">
+        <v>700</v>
+      </c>
+      <c r="I22">
+        <v>1600</v>
+      </c>
+      <c r="J22">
+        <v>40</v>
+      </c>
+      <c r="K22">
+        <v>5660</v>
+      </c>
+      <c r="L22">
+        <v>4690</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>40</v>
+      </c>
+      <c r="O22">
+        <v>1210</v>
+      </c>
+      <c r="P22">
+        <v>25420</v>
+      </c>
+      <c r="Q22">
+        <v>40</v>
+      </c>
+      <c r="R22">
+        <v>28480</v>
+      </c>
+      <c r="S22">
+        <v>10520</v>
+      </c>
+      <c r="T22">
+        <v>22030</v>
+      </c>
+      <c r="U22">
+        <v>700</v>
+      </c>
+      <c r="V22">
+        <v>0</v>
+      </c>
+      <c r="W22">
+        <v>11420</v>
+      </c>
+      <c r="X22">
+        <v>0</v>
+      </c>
+      <c r="Y22">
+        <v>5270</v>
+      </c>
+      <c r="Z22">
+        <v>3650</v>
+      </c>
+      <c r="AA22">
+        <v>22180</v>
+      </c>
+      <c r="AB22">
+        <v>0</v>
+      </c>
+      <c r="AC22">
+        <v>100</v>
+      </c>
+      <c r="AD22">
+        <v>880</v>
+      </c>
+      <c r="AE22">
+        <v>1400</v>
+      </c>
+      <c r="AF22">
+        <v>100</v>
+      </c>
+      <c r="AG22">
+        <v>16160</v>
+      </c>
+      <c r="AH22">
+        <v>540</v>
+      </c>
+      <c r="AI22">
+        <v>40</v>
+      </c>
+      <c r="AJ22">
+        <v>40</v>
+      </c>
+      <c r="AK22">
+        <v>0</v>
+      </c>
+      <c r="AL22">
+        <v>1560</v>
+      </c>
+      <c r="AM22">
+        <v>360</v>
+      </c>
+      <c r="AN22">
+        <v>25240</v>
+      </c>
+      <c r="AO22">
+        <v>360</v>
+      </c>
+      <c r="AP22">
+        <v>10540</v>
+      </c>
+      <c r="AQ22">
+        <v>100</v>
+      </c>
+      <c r="AR22">
+        <v>0</v>
+      </c>
+      <c r="AS22">
+        <v>19240</v>
+      </c>
+      <c r="AT22">
+        <v>0</v>
+      </c>
+      <c r="AU22">
+        <v>40</v>
+      </c>
+      <c r="AV22">
+        <v>0</v>
+      </c>
+      <c r="AW22">
+        <v>6320</v>
+      </c>
+      <c r="AX22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A23">
+        <v>40</v>
+      </c>
+      <c r="B23">
+        <v>24170</v>
+      </c>
+      <c r="C23">
+        <v>15000</v>
+      </c>
+      <c r="D23">
+        <v>40</v>
+      </c>
+      <c r="E23">
+        <v>4160</v>
+      </c>
+      <c r="F23">
+        <v>40</v>
+      </c>
+      <c r="G23">
+        <v>40</v>
+      </c>
+      <c r="H23">
+        <v>700</v>
+      </c>
+      <c r="I23">
+        <v>28160</v>
+      </c>
+      <c r="J23">
+        <v>40</v>
+      </c>
+      <c r="K23">
+        <v>11360</v>
+      </c>
+      <c r="L23">
+        <v>5130</v>
+      </c>
+      <c r="M23">
+        <v>6440</v>
+      </c>
+      <c r="N23">
+        <v>14640</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>3360</v>
+      </c>
+      <c r="R23">
+        <v>2440</v>
+      </c>
+      <c r="S23">
+        <v>11960</v>
+      </c>
+      <c r="T23">
+        <v>40</v>
+      </c>
+      <c r="U23">
+        <v>0</v>
+      </c>
+      <c r="V23">
+        <v>360</v>
+      </c>
+      <c r="W23">
+        <v>40</v>
+      </c>
+      <c r="X23">
+        <v>0</v>
+      </c>
+      <c r="Y23">
+        <v>4140</v>
+      </c>
+      <c r="Z23">
+        <v>40</v>
+      </c>
+      <c r="AA23">
+        <v>15460</v>
+      </c>
+      <c r="AB23">
+        <v>40</v>
+      </c>
+      <c r="AC23">
+        <v>30340</v>
+      </c>
+      <c r="AD23">
+        <v>27350</v>
+      </c>
+      <c r="AE23">
+        <v>8860</v>
+      </c>
+      <c r="AF23">
+        <v>32460</v>
+      </c>
+      <c r="AG23">
+        <v>24120</v>
+      </c>
+      <c r="AH23">
+        <v>540</v>
+      </c>
+      <c r="AI23">
+        <v>100</v>
+      </c>
+      <c r="AJ23">
+        <v>27900</v>
+      </c>
+      <c r="AK23">
+        <v>0</v>
+      </c>
+      <c r="AL23">
+        <v>700</v>
+      </c>
+      <c r="AM23">
+        <v>360</v>
+      </c>
+      <c r="AN23">
+        <v>25300</v>
+      </c>
+      <c r="AO23">
+        <v>29980</v>
+      </c>
+      <c r="AP23">
+        <v>11280</v>
+      </c>
+      <c r="AQ23">
+        <v>17340</v>
+      </c>
+      <c r="AR23">
+        <v>22460</v>
+      </c>
+      <c r="AS23">
+        <v>8610</v>
+      </c>
+      <c r="AT23">
+        <v>9190</v>
+      </c>
+      <c r="AU23">
+        <v>40</v>
+      </c>
+      <c r="AV23">
+        <v>0</v>
+      </c>
+      <c r="AW23">
+        <v>6320</v>
+      </c>
+      <c r="AX23">
+        <v>7060</v>
+      </c>
+    </row>
+    <row r="24" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A24">
+        <v>40</v>
+      </c>
+      <c r="B24">
+        <v>40</v>
+      </c>
+      <c r="C24">
+        <v>24360</v>
+      </c>
+      <c r="D24">
+        <v>40</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>18370</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>280</v>
+      </c>
+      <c r="I24">
+        <v>28160</v>
+      </c>
+      <c r="J24">
+        <v>40</v>
+      </c>
+      <c r="K24">
+        <v>13320</v>
+      </c>
+      <c r="L24">
+        <v>5130</v>
+      </c>
+      <c r="M24">
+        <v>100</v>
+      </c>
+      <c r="N24">
+        <v>3560</v>
+      </c>
+      <c r="O24">
+        <v>3130</v>
+      </c>
+      <c r="P24">
+        <v>360</v>
+      </c>
+      <c r="Q24">
+        <v>2490</v>
+      </c>
+      <c r="R24">
+        <v>600</v>
+      </c>
+      <c r="S24">
+        <v>180</v>
+      </c>
+      <c r="T24">
+        <v>23290</v>
+      </c>
+      <c r="U24">
+        <v>15820</v>
+      </c>
+      <c r="V24">
+        <v>400</v>
+      </c>
+      <c r="W24">
+        <v>40</v>
+      </c>
+      <c r="X24">
+        <v>32600</v>
+      </c>
+      <c r="Y24">
+        <v>4140</v>
+      </c>
+      <c r="Z24">
+        <v>100</v>
+      </c>
+      <c r="AA24">
+        <v>1120</v>
+      </c>
+      <c r="AB24">
+        <v>25240</v>
+      </c>
+      <c r="AC24">
+        <v>30620</v>
+      </c>
+      <c r="AD24">
+        <v>2620</v>
+      </c>
+      <c r="AE24">
+        <v>1060</v>
+      </c>
+      <c r="AF24">
+        <v>180</v>
+      </c>
+      <c r="AG24">
+        <v>0</v>
+      </c>
+      <c r="AH24">
+        <v>1600</v>
+      </c>
+      <c r="AI24">
+        <v>0</v>
+      </c>
+      <c r="AJ24">
+        <v>1340</v>
+      </c>
+      <c r="AK24">
+        <v>0</v>
+      </c>
+      <c r="AL24">
+        <v>1560</v>
+      </c>
+      <c r="AM24">
+        <v>240</v>
+      </c>
+      <c r="AN24">
+        <v>23370</v>
+      </c>
+      <c r="AO24">
+        <v>100</v>
+      </c>
+      <c r="AP24">
+        <v>8060</v>
+      </c>
+      <c r="AQ24">
+        <v>2100</v>
+      </c>
+      <c r="AR24">
+        <v>0</v>
+      </c>
+      <c r="AS24">
+        <v>7010</v>
+      </c>
+      <c r="AT24">
+        <v>11320</v>
+      </c>
+      <c r="AU24">
+        <v>100</v>
+      </c>
+      <c r="AV24">
+        <v>0</v>
+      </c>
+      <c r="AW24">
+        <v>360</v>
+      </c>
+      <c r="AX24">
+        <v>7060</v>
+      </c>
+    </row>
+    <row r="25" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A25">
+        <v>600</v>
+      </c>
+      <c r="B25">
+        <v>180</v>
+      </c>
+      <c r="C25">
+        <v>360</v>
+      </c>
+      <c r="D25">
+        <v>42690</v>
+      </c>
+      <c r="E25">
+        <v>1440</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>9140</v>
+      </c>
+      <c r="H25">
+        <v>100</v>
+      </c>
+      <c r="I25">
+        <v>27760</v>
+      </c>
+      <c r="J25">
+        <v>40</v>
+      </c>
+      <c r="K25">
+        <v>9690</v>
+      </c>
+      <c r="L25">
+        <v>40</v>
+      </c>
+      <c r="M25">
+        <v>7080</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>180</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>0</v>
+      </c>
+      <c r="T25">
+        <v>23230</v>
+      </c>
+      <c r="U25">
+        <v>100</v>
+      </c>
+      <c r="V25">
+        <v>21900</v>
+      </c>
+      <c r="W25">
+        <v>40</v>
+      </c>
+      <c r="X25">
+        <v>40</v>
+      </c>
+      <c r="Y25">
+        <v>35560</v>
+      </c>
+      <c r="Z25">
+        <v>40</v>
+      </c>
+      <c r="AA25">
+        <v>33230</v>
+      </c>
+      <c r="AB25">
+        <v>26080</v>
+      </c>
+      <c r="AC25">
+        <v>0</v>
+      </c>
+      <c r="AD25">
+        <v>1080</v>
+      </c>
+      <c r="AE25">
+        <v>9020</v>
+      </c>
+      <c r="AF25">
+        <v>35600</v>
+      </c>
+      <c r="AG25">
+        <v>980</v>
+      </c>
+      <c r="AH25">
+        <v>33150</v>
+      </c>
+      <c r="AI25">
+        <v>100</v>
+      </c>
+      <c r="AJ25">
+        <v>11640</v>
+      </c>
+      <c r="AK25">
+        <v>0</v>
+      </c>
+      <c r="AL25">
+        <v>2800</v>
+      </c>
+      <c r="AM25">
+        <v>4200</v>
+      </c>
+      <c r="AN25">
+        <v>360</v>
+      </c>
+      <c r="AO25">
+        <v>1270</v>
+      </c>
+      <c r="AP25">
+        <v>5980</v>
+      </c>
+      <c r="AQ25">
+        <v>2100</v>
+      </c>
+      <c r="AR25">
+        <v>24990</v>
+      </c>
+      <c r="AS25">
+        <v>40</v>
+      </c>
+      <c r="AT25">
+        <v>11760</v>
+      </c>
+      <c r="AU25">
+        <v>700</v>
+      </c>
+      <c r="AV25">
+        <v>0</v>
+      </c>
+      <c r="AW25">
+        <v>540</v>
+      </c>
+      <c r="AX25">
+        <v>3750</v>
+      </c>
+    </row>
+    <row r="26" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A26">
+        <v>18560</v>
+      </c>
+      <c r="B26">
+        <v>29400</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>100</v>
+      </c>
+      <c r="E26">
+        <v>4160</v>
+      </c>
+      <c r="F26">
+        <v>23750</v>
+      </c>
+      <c r="G26">
+        <v>38460</v>
+      </c>
+      <c r="H26">
+        <v>1020</v>
+      </c>
+      <c r="I26">
+        <v>31950</v>
+      </c>
+      <c r="J26">
+        <v>40</v>
+      </c>
+      <c r="K26">
+        <v>7030</v>
+      </c>
+      <c r="L26">
+        <v>9440</v>
+      </c>
+      <c r="M26">
+        <v>7080</v>
+      </c>
+      <c r="N26">
+        <v>5790</v>
+      </c>
+      <c r="O26">
+        <v>3530</v>
+      </c>
+      <c r="P26">
+        <v>360</v>
+      </c>
+      <c r="Q26">
+        <v>32440</v>
+      </c>
+      <c r="R26">
+        <v>37840</v>
+      </c>
+      <c r="S26">
+        <v>19580</v>
+      </c>
+      <c r="T26">
+        <v>0</v>
+      </c>
+      <c r="U26">
+        <v>880</v>
+      </c>
+      <c r="V26">
+        <v>1260</v>
+      </c>
+      <c r="W26">
+        <v>40</v>
+      </c>
+      <c r="X26">
+        <v>0</v>
+      </c>
+      <c r="Y26">
+        <v>360</v>
+      </c>
+      <c r="Z26">
+        <v>10100</v>
+      </c>
+      <c r="AA26">
+        <v>33230</v>
+      </c>
+      <c r="AB26">
+        <v>40</v>
+      </c>
+      <c r="AC26">
+        <v>40</v>
+      </c>
+      <c r="AD26">
+        <v>760</v>
+      </c>
+      <c r="AE26">
+        <v>40</v>
+      </c>
+      <c r="AF26">
+        <v>0</v>
+      </c>
+      <c r="AG26">
+        <v>15840</v>
+      </c>
+      <c r="AH26">
+        <v>0</v>
+      </c>
+      <c r="AI26">
+        <v>1440</v>
+      </c>
+      <c r="AJ26">
+        <v>0</v>
+      </c>
+      <c r="AK26">
+        <v>40</v>
+      </c>
+      <c r="AL26">
+        <v>0</v>
+      </c>
+      <c r="AM26">
+        <v>100</v>
+      </c>
+      <c r="AN26">
+        <v>40</v>
+      </c>
+      <c r="AO26">
+        <v>0</v>
+      </c>
+      <c r="AP26">
+        <v>12080</v>
+      </c>
+      <c r="AQ26">
+        <v>4560</v>
+      </c>
+      <c r="AR26">
+        <v>0</v>
+      </c>
+      <c r="AS26">
+        <v>40</v>
+      </c>
+      <c r="AT26">
+        <v>13500</v>
+      </c>
+      <c r="AU26">
+        <v>27940</v>
+      </c>
+      <c r="AV26">
+        <v>0</v>
+      </c>
+      <c r="AW26">
+        <v>540</v>
+      </c>
+      <c r="AX26">
+        <v>12260</v>
+      </c>
+    </row>
+    <row r="27" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A27">
+        <v>840</v>
+      </c>
+      <c r="B27">
+        <v>29960</v>
+      </c>
+      <c r="C27">
+        <v>28760</v>
+      </c>
+      <c r="D27">
+        <v>100</v>
+      </c>
+      <c r="E27">
+        <v>2540</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>40</v>
+      </c>
+      <c r="H27">
+        <v>700</v>
+      </c>
+      <c r="I27">
+        <v>240</v>
+      </c>
+      <c r="J27">
+        <v>40</v>
+      </c>
+      <c r="K27">
+        <v>15880</v>
+      </c>
+      <c r="L27">
+        <v>540</v>
+      </c>
+      <c r="M27">
+        <v>100</v>
+      </c>
+      <c r="N27">
+        <v>5790</v>
+      </c>
+      <c r="O27">
+        <v>5560</v>
+      </c>
+      <c r="P27">
+        <v>1320</v>
+      </c>
+      <c r="Q27">
+        <v>32440</v>
+      </c>
+      <c r="R27">
+        <v>1060</v>
+      </c>
+      <c r="S27">
+        <v>0</v>
+      </c>
+      <c r="T27">
+        <v>38480</v>
+      </c>
+      <c r="U27">
+        <v>33900</v>
+      </c>
+      <c r="V27">
+        <v>680</v>
+      </c>
+      <c r="W27">
+        <v>100</v>
+      </c>
+      <c r="X27">
+        <v>360</v>
+      </c>
+      <c r="Y27">
+        <v>100</v>
+      </c>
+      <c r="Z27">
+        <v>400</v>
+      </c>
+      <c r="AA27">
+        <v>49910</v>
+      </c>
+      <c r="AB27">
+        <v>100</v>
+      </c>
+      <c r="AC27">
+        <v>40</v>
+      </c>
+      <c r="AD27">
+        <v>100</v>
+      </c>
+      <c r="AE27">
+        <v>40</v>
+      </c>
+      <c r="AF27">
+        <v>360</v>
+      </c>
+      <c r="AG27">
+        <v>420</v>
+      </c>
+      <c r="AH27">
+        <v>540</v>
+      </c>
+      <c r="AI27">
+        <v>1440</v>
+      </c>
+      <c r="AJ27">
+        <v>51120</v>
+      </c>
+      <c r="AK27">
+        <v>100</v>
+      </c>
+      <c r="AL27">
+        <v>10500</v>
+      </c>
+      <c r="AM27">
+        <v>360</v>
+      </c>
+      <c r="AN27">
+        <v>40</v>
+      </c>
+      <c r="AO27">
+        <v>0</v>
+      </c>
+      <c r="AP27">
+        <v>13580</v>
+      </c>
+      <c r="AQ27">
+        <v>40</v>
+      </c>
+      <c r="AR27">
+        <v>0</v>
+      </c>
+      <c r="AS27">
+        <v>0</v>
+      </c>
+      <c r="AT27">
+        <v>0</v>
+      </c>
+      <c r="AU27">
+        <v>15390</v>
+      </c>
+      <c r="AV27">
+        <v>0</v>
+      </c>
+      <c r="AW27">
+        <v>100</v>
+      </c>
+      <c r="AX27">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="28" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A28">
+        <v>840</v>
+      </c>
+      <c r="B28">
+        <v>35500</v>
+      </c>
+      <c r="C28">
+        <v>28760</v>
+      </c>
+      <c r="D28">
+        <v>100</v>
+      </c>
+      <c r="E28">
+        <v>1500</v>
+      </c>
+      <c r="F28">
+        <v>25520</v>
+      </c>
+      <c r="G28">
+        <v>100</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>39900</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+      <c r="M28">
+        <v>9000</v>
+      </c>
+      <c r="N28">
+        <v>2620</v>
+      </c>
+      <c r="O28">
+        <v>40</v>
+      </c>
+      <c r="P28">
+        <v>41320</v>
+      </c>
+      <c r="Q28">
+        <v>41370</v>
+      </c>
+      <c r="R28">
+        <v>4240</v>
+      </c>
+      <c r="S28">
+        <v>1000</v>
+      </c>
+      <c r="T28">
+        <v>0</v>
+      </c>
+      <c r="U28">
+        <v>360</v>
+      </c>
+      <c r="V28">
+        <v>23360</v>
+      </c>
+      <c r="W28">
+        <v>450</v>
+      </c>
+      <c r="X28">
+        <v>360</v>
+      </c>
+      <c r="Y28">
+        <v>360</v>
+      </c>
+      <c r="Z28">
+        <v>360</v>
+      </c>
+      <c r="AA28">
+        <v>2280</v>
+      </c>
+      <c r="AB28">
+        <v>450</v>
+      </c>
+      <c r="AC28">
+        <v>40</v>
+      </c>
+      <c r="AD28">
+        <v>0</v>
+      </c>
+      <c r="AE28">
+        <v>40</v>
+      </c>
+      <c r="AF28">
+        <v>360</v>
+      </c>
+      <c r="AG28">
+        <v>15840</v>
+      </c>
+      <c r="AH28">
+        <v>40</v>
+      </c>
+      <c r="AI28">
+        <v>3140</v>
+      </c>
+      <c r="AJ28">
+        <v>540</v>
+      </c>
+      <c r="AK28">
+        <v>760</v>
+      </c>
+      <c r="AL28">
+        <v>2800</v>
+      </c>
+      <c r="AM28">
+        <v>21720</v>
+      </c>
+      <c r="AN28">
+        <v>15000</v>
+      </c>
+      <c r="AO28">
+        <v>45680</v>
+      </c>
+      <c r="AP28">
+        <v>21140</v>
+      </c>
+      <c r="AQ28">
+        <v>2100</v>
+      </c>
+      <c r="AR28">
+        <v>40</v>
+      </c>
+      <c r="AS28">
+        <v>7420</v>
+      </c>
+      <c r="AT28">
+        <v>15060</v>
+      </c>
+      <c r="AU28">
+        <v>3360</v>
+      </c>
+      <c r="AV28">
+        <v>40</v>
+      </c>
+      <c r="AW28">
+        <v>540</v>
+      </c>
+      <c r="AX28">
+        <v>4620</v>
+      </c>
+    </row>
+    <row r="29" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A29">
+        <v>22440</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29">
+        <v>28940</v>
+      </c>
+      <c r="D29">
+        <v>100</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>24940</v>
+      </c>
+      <c r="G29">
+        <v>45790</v>
+      </c>
+      <c r="H29">
+        <v>700</v>
+      </c>
+      <c r="I29">
+        <v>100</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="M29">
+        <v>0</v>
+      </c>
+      <c r="N29">
+        <v>2560</v>
+      </c>
+      <c r="O29">
+        <v>3850</v>
+      </c>
+      <c r="P29">
+        <v>28220</v>
+      </c>
+      <c r="Q29">
+        <v>39230</v>
+      </c>
+      <c r="R29">
+        <v>5760</v>
+      </c>
+      <c r="S29">
+        <v>24780</v>
+      </c>
+      <c r="T29">
+        <v>40</v>
+      </c>
+      <c r="U29">
+        <v>3340</v>
+      </c>
+      <c r="V29">
+        <v>360</v>
+      </c>
+      <c r="W29">
+        <v>100</v>
+      </c>
+      <c r="X29">
+        <v>100</v>
+      </c>
+      <c r="Y29">
+        <v>360</v>
+      </c>
+      <c r="Z29">
+        <v>10020</v>
+      </c>
+      <c r="AA29">
+        <v>47890</v>
+      </c>
+      <c r="AB29">
+        <v>40</v>
+      </c>
+      <c r="AC29">
+        <v>0</v>
+      </c>
+      <c r="AD29">
+        <v>5580</v>
+      </c>
+      <c r="AE29">
+        <v>0</v>
+      </c>
+      <c r="AF29">
+        <v>0</v>
+      </c>
+      <c r="AG29">
+        <v>15840</v>
+      </c>
+      <c r="AH29">
+        <v>700</v>
+      </c>
+      <c r="AI29">
+        <v>0</v>
+      </c>
+      <c r="AJ29">
+        <v>680</v>
+      </c>
+      <c r="AK29">
+        <v>840</v>
+      </c>
+      <c r="AL29">
+        <v>700</v>
+      </c>
+      <c r="AM29">
+        <v>420</v>
+      </c>
+      <c r="AN29">
+        <v>7370</v>
+      </c>
+      <c r="AO29">
+        <v>40</v>
+      </c>
+      <c r="AP29">
+        <v>1600</v>
+      </c>
+      <c r="AQ29">
+        <v>2100</v>
+      </c>
+      <c r="AR29">
+        <v>40</v>
+      </c>
+      <c r="AS29">
+        <v>11860</v>
+      </c>
+      <c r="AT29">
+        <v>40</v>
+      </c>
+      <c r="AU29">
+        <v>100</v>
+      </c>
+      <c r="AV29">
+        <v>40</v>
+      </c>
+      <c r="AW29">
+        <v>1180</v>
+      </c>
+      <c r="AX29">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="30" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A30">
+        <v>23420</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30">
+        <v>28940</v>
+      </c>
+      <c r="D30">
+        <v>100</v>
+      </c>
+      <c r="E30">
+        <v>1500</v>
+      </c>
+      <c r="F30">
+        <v>1000</v>
+      </c>
+      <c r="G30">
+        <v>10660</v>
+      </c>
+      <c r="H30">
+        <v>1000</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>360</v>
+      </c>
+      <c r="K30">
+        <v>9420</v>
+      </c>
+      <c r="L30">
+        <v>540</v>
+      </c>
+      <c r="M30">
+        <v>40</v>
+      </c>
+      <c r="N30">
+        <v>0</v>
+      </c>
+      <c r="O30">
+        <v>40</v>
+      </c>
+      <c r="P30">
+        <v>28220</v>
+      </c>
+      <c r="Q30">
+        <v>0</v>
+      </c>
+      <c r="R30">
+        <v>3360</v>
+      </c>
+      <c r="S30">
+        <v>0</v>
+      </c>
+      <c r="T30">
+        <v>100</v>
+      </c>
+      <c r="U30">
+        <v>100</v>
+      </c>
+      <c r="V30">
+        <v>23560</v>
+      </c>
+      <c r="W30">
+        <v>100</v>
+      </c>
+      <c r="X30">
+        <v>45900</v>
+      </c>
+      <c r="Y30">
+        <v>360</v>
+      </c>
+      <c r="Z30">
+        <v>43470</v>
+      </c>
+      <c r="AA30">
+        <v>0</v>
+      </c>
+      <c r="AB30">
+        <v>100</v>
+      </c>
+      <c r="AC30">
+        <v>360</v>
+      </c>
+      <c r="AD30">
+        <v>47030</v>
+      </c>
+      <c r="AE30">
+        <v>61120</v>
+      </c>
+      <c r="AF30">
+        <v>1000</v>
+      </c>
+      <c r="AG30">
+        <v>0</v>
+      </c>
+      <c r="AH30">
+        <v>360</v>
+      </c>
+      <c r="AI30">
+        <v>29000</v>
+      </c>
+      <c r="AJ30">
+        <v>680</v>
+      </c>
+      <c r="AK30">
+        <v>360</v>
+      </c>
+      <c r="AL30">
+        <v>2800</v>
+      </c>
+      <c r="AM30">
+        <v>560</v>
+      </c>
+      <c r="AN30">
+        <v>15860</v>
+      </c>
+      <c r="AO30">
+        <v>42940</v>
+      </c>
+      <c r="AP30">
+        <v>180</v>
+      </c>
+      <c r="AQ30">
+        <v>11000</v>
+      </c>
+      <c r="AR30">
+        <v>40</v>
+      </c>
+      <c r="AS30">
+        <v>0</v>
+      </c>
+      <c r="AT30">
+        <v>40</v>
+      </c>
+      <c r="AU30">
+        <v>37440</v>
+      </c>
+      <c r="AV30">
+        <v>54670</v>
+      </c>
+      <c r="AW30">
+        <v>0</v>
+      </c>
+      <c r="AX30">
+        <v>18600</v>
+      </c>
+    </row>
+    <row r="31" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A31">
+        <v>3960</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+      <c r="C31">
+        <v>28940</v>
+      </c>
+      <c r="D31">
+        <v>700</v>
+      </c>
+      <c r="E31">
+        <v>4830</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>40</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>8120</v>
+      </c>
+      <c r="L31">
+        <v>40980</v>
+      </c>
+      <c r="M31">
+        <v>1600</v>
+      </c>
+      <c r="N31">
+        <v>4170</v>
+      </c>
+      <c r="O31">
+        <v>5490</v>
+      </c>
+      <c r="P31">
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <v>40790</v>
+      </c>
+      <c r="R31">
+        <v>40</v>
+      </c>
+      <c r="S31">
+        <v>0</v>
+      </c>
+      <c r="T31">
+        <v>45890</v>
+      </c>
+      <c r="U31">
+        <v>35400</v>
+      </c>
+      <c r="V31">
+        <v>23560</v>
+      </c>
+      <c r="W31">
+        <v>19730</v>
+      </c>
+      <c r="X31">
+        <v>0</v>
+      </c>
+      <c r="Y31">
+        <v>1000</v>
+      </c>
+      <c r="Z31">
+        <v>15100</v>
+      </c>
+      <c r="AA31">
+        <v>40</v>
+      </c>
+      <c r="AB31">
+        <v>1580</v>
+      </c>
+      <c r="AC31">
+        <v>360</v>
+      </c>
+      <c r="AD31">
+        <v>43100</v>
+      </c>
+      <c r="AE31">
+        <v>280</v>
+      </c>
+      <c r="AF31">
+        <v>57600</v>
+      </c>
+      <c r="AG31">
+        <v>54740</v>
+      </c>
+      <c r="AH31">
+        <v>56320</v>
+      </c>
+      <c r="AI31">
+        <v>29000</v>
+      </c>
+      <c r="AJ31">
+        <v>0</v>
+      </c>
+      <c r="AK31">
+        <v>0</v>
+      </c>
+      <c r="AL31">
+        <v>1500</v>
+      </c>
+      <c r="AM31">
+        <v>23270</v>
+      </c>
+      <c r="AN31">
+        <v>17020</v>
+      </c>
+      <c r="AO31">
+        <v>40</v>
+      </c>
+      <c r="AP31">
+        <v>0</v>
+      </c>
+      <c r="AQ31">
+        <v>100</v>
+      </c>
+      <c r="AR31">
+        <v>28200</v>
+      </c>
+      <c r="AS31">
+        <v>0</v>
+      </c>
+      <c r="AT31">
+        <v>40</v>
+      </c>
+      <c r="AU31">
+        <v>0</v>
+      </c>
+      <c r="AV31">
+        <v>40</v>
+      </c>
+      <c r="AW31">
+        <v>540</v>
+      </c>
+      <c r="AX31">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="32" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A32">
+        <v>21740</v>
+      </c>
+      <c r="B32">
+        <v>40</v>
+      </c>
+      <c r="C32">
+        <v>28940</v>
+      </c>
+      <c r="D32">
+        <v>700</v>
+      </c>
+      <c r="E32">
+        <v>1690</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>45790</v>
+      </c>
+      <c r="H32">
+        <v>1180</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <v>40</v>
+      </c>
+      <c r="L32">
+        <v>40</v>
+      </c>
+      <c r="M32">
+        <v>40</v>
+      </c>
+      <c r="N32">
+        <v>3880</v>
+      </c>
+      <c r="O32">
+        <v>500</v>
+      </c>
+      <c r="P32">
+        <v>0</v>
+      </c>
+      <c r="Q32">
+        <v>48470</v>
+      </c>
+      <c r="R32">
+        <v>56280</v>
+      </c>
+      <c r="S32">
+        <v>1580</v>
+      </c>
+      <c r="T32">
+        <v>47730</v>
+      </c>
+      <c r="U32">
+        <v>35400</v>
+      </c>
+      <c r="V32">
+        <v>27520</v>
+      </c>
+      <c r="W32">
+        <v>0</v>
+      </c>
+      <c r="X32">
+        <v>400</v>
+      </c>
+      <c r="Y32">
+        <v>360</v>
+      </c>
+      <c r="Z32">
+        <v>100</v>
+      </c>
+      <c r="AA32">
+        <v>2460</v>
+      </c>
+      <c r="AB32">
+        <v>0</v>
+      </c>
+      <c r="AC32">
+        <v>25460</v>
+      </c>
+      <c r="AD32">
+        <v>43180</v>
+      </c>
+      <c r="AE32">
+        <v>40</v>
+      </c>
+      <c r="AF32">
+        <v>100</v>
+      </c>
+      <c r="AG32">
+        <v>56960</v>
+      </c>
+      <c r="AH32">
+        <v>700</v>
+      </c>
+      <c r="AI32">
+        <v>0</v>
+      </c>
+      <c r="AJ32">
+        <v>1020</v>
+      </c>
+      <c r="AK32">
+        <v>280</v>
+      </c>
+      <c r="AL32">
+        <v>700</v>
+      </c>
+      <c r="AM32">
+        <v>560</v>
+      </c>
+      <c r="AN32">
+        <v>22140</v>
+      </c>
+      <c r="AO32">
+        <v>100</v>
+      </c>
+      <c r="AP32">
+        <v>24620</v>
+      </c>
+      <c r="AQ32">
+        <v>100</v>
+      </c>
+      <c r="AR32">
+        <v>1180</v>
+      </c>
+      <c r="AS32">
+        <v>11860</v>
+      </c>
+      <c r="AT32">
+        <v>40</v>
+      </c>
+      <c r="AU32">
+        <v>47280</v>
+      </c>
+      <c r="AV32">
+        <v>56560</v>
+      </c>
+      <c r="AW32">
+        <v>0</v>
+      </c>
+      <c r="AX32">
+        <v>13000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A33">
+        <v>21920</v>
+      </c>
+      <c r="B33">
+        <v>28020</v>
+      </c>
+      <c r="C33">
+        <v>38460</v>
+      </c>
+      <c r="D33">
+        <v>53580</v>
+      </c>
+      <c r="E33">
+        <v>57930</v>
+      </c>
+      <c r="F33">
+        <v>36020</v>
+      </c>
+      <c r="G33">
+        <v>48910</v>
+      </c>
+      <c r="H33">
+        <v>26840</v>
+      </c>
+      <c r="I33">
+        <v>66000</v>
+      </c>
+      <c r="J33">
+        <v>31540</v>
+      </c>
+      <c r="K33">
+        <v>28660</v>
+      </c>
+      <c r="L33">
+        <v>25260</v>
+      </c>
+      <c r="M33">
+        <v>35780</v>
+      </c>
+      <c r="N33">
+        <v>28750</v>
+      </c>
+      <c r="O33">
+        <v>19820</v>
+      </c>
+      <c r="P33">
+        <v>41320</v>
+      </c>
+      <c r="Q33">
+        <v>48470</v>
+      </c>
+      <c r="R33">
+        <v>360</v>
+      </c>
+      <c r="S33">
+        <v>41460</v>
+      </c>
+      <c r="T33">
+        <v>47910</v>
+      </c>
+      <c r="U33">
+        <v>45840</v>
+      </c>
+      <c r="V33">
+        <v>34000</v>
+      </c>
+      <c r="W33">
+        <v>17410</v>
+      </c>
+      <c r="X33">
+        <v>56140</v>
+      </c>
+      <c r="Y33">
+        <v>56620</v>
+      </c>
+      <c r="Z33">
+        <v>45490</v>
+      </c>
+      <c r="AA33">
+        <v>63670</v>
+      </c>
+      <c r="AB33">
+        <v>48190</v>
+      </c>
+      <c r="AC33">
+        <v>51830</v>
+      </c>
+      <c r="AD33">
+        <v>62080</v>
+      </c>
+      <c r="AE33">
+        <v>73900</v>
+      </c>
+      <c r="AF33">
+        <v>59700</v>
+      </c>
+      <c r="AG33">
+        <v>63720</v>
+      </c>
+      <c r="AH33">
+        <v>47100</v>
+      </c>
+      <c r="AI33">
+        <v>40</v>
+      </c>
+      <c r="AJ33">
+        <v>66560</v>
+      </c>
+      <c r="AK33">
+        <v>62770</v>
+      </c>
+      <c r="AL33">
+        <v>31080</v>
+      </c>
+      <c r="AM33">
+        <v>24590</v>
+      </c>
+      <c r="AN33">
+        <v>39630</v>
+      </c>
+      <c r="AO33">
+        <v>50620</v>
+      </c>
+      <c r="AP33">
+        <v>16160</v>
+      </c>
+      <c r="AQ33">
+        <v>39120</v>
+      </c>
+      <c r="AR33">
+        <v>44780</v>
+      </c>
+      <c r="AS33">
+        <v>2280</v>
+      </c>
+      <c r="AT33">
+        <v>17320</v>
+      </c>
+      <c r="AU33">
+        <v>47280</v>
+      </c>
+      <c r="AV33">
+        <v>65620</v>
+      </c>
+      <c r="AW33">
+        <v>21480</v>
+      </c>
+      <c r="AX33">
+        <v>20990</v>
+      </c>
+    </row>
+    <row r="35" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A35">
+        <v>14</v>
+      </c>
+      <c r="B35">
+        <v>13</v>
+      </c>
+      <c r="C35">
+        <v>12</v>
+      </c>
+      <c r="D35">
+        <v>20</v>
+      </c>
+      <c r="E35">
+        <v>12</v>
+      </c>
+      <c r="F35">
+        <v>18</v>
+      </c>
+      <c r="G35">
+        <v>13</v>
+      </c>
+      <c r="H35">
+        <v>17</v>
+      </c>
+      <c r="I35">
+        <v>17</v>
+      </c>
+      <c r="J35">
+        <v>15</v>
+      </c>
+      <c r="K35">
+        <v>13</v>
+      </c>
+      <c r="L35">
+        <v>17</v>
+      </c>
+      <c r="M35">
+        <v>12</v>
+      </c>
+      <c r="N35">
+        <v>18</v>
+      </c>
+      <c r="O35">
+        <v>16</v>
+      </c>
+      <c r="P35">
+        <v>12</v>
+      </c>
+      <c r="Q35">
+        <v>17</v>
+      </c>
+      <c r="R35">
+        <v>11</v>
+      </c>
+      <c r="S35">
+        <v>18</v>
+      </c>
+      <c r="T35">
+        <v>16</v>
+      </c>
+      <c r="U35">
+        <v>16</v>
+      </c>
+      <c r="V35">
+        <v>11</v>
+      </c>
+      <c r="W35">
+        <v>15</v>
+      </c>
+      <c r="X35">
+        <v>15</v>
+      </c>
+      <c r="Y35">
+        <v>15</v>
+      </c>
+      <c r="Z35">
+        <v>12</v>
+      </c>
+      <c r="AA35">
+        <v>11</v>
+      </c>
+      <c r="AB35">
+        <v>11</v>
+      </c>
+      <c r="AC35">
+        <v>12</v>
+      </c>
+      <c r="AD35">
+        <v>20</v>
+      </c>
+      <c r="AE35">
+        <v>18</v>
+      </c>
+      <c r="AF35">
+        <v>10</v>
+      </c>
+      <c r="AG35">
+        <v>19</v>
+      </c>
+      <c r="AH35">
+        <v>13</v>
+      </c>
+      <c r="AI35">
+        <v>12</v>
+      </c>
+      <c r="AJ35">
+        <v>12</v>
+      </c>
+      <c r="AK35">
+        <v>33</v>
+      </c>
+      <c r="AL35">
+        <v>15</v>
+      </c>
+      <c r="AM35">
+        <v>11</v>
+      </c>
+      <c r="AN35">
+        <v>11</v>
+      </c>
+      <c r="AO35">
+        <v>23</v>
+      </c>
+      <c r="AP35">
+        <v>16</v>
+      </c>
+      <c r="AQ35">
+        <v>14</v>
+      </c>
+      <c r="AR35">
+        <v>11</v>
+      </c>
+      <c r="AS35">
+        <v>11</v>
+      </c>
+      <c r="AT35">
+        <v>13</v>
+      </c>
+      <c r="AU35">
+        <v>15</v>
+      </c>
+      <c r="AV35">
+        <v>12</v>
+      </c>
+      <c r="AW35">
+        <v>14</v>
+      </c>
+      <c r="AX35">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <conditionalFormatting sqref="A1:AX33 A35:AX35">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
       <formula>2099</formula>
     </cfRule>
